--- a/5. Master_thesis/output.xlsx
+++ b/5. Master_thesis/output.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git_Projects\5. Master_thesis\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3E4800C-1A88-47D3-B2F9-9DDDCC8CF9BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -52,11 +58,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -122,6 +128,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -168,7 +182,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -200,9 +214,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -234,6 +266,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -409,14 +459,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K141"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -451,7 +516,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>40544</v>
       </c>
@@ -468,7 +533,7 @@
         <v>1783</v>
       </c>
       <c r="F2">
-        <v>1.3575</v>
+        <v>1.3574999999999999</v>
       </c>
       <c r="G2">
         <v>14993</v>
@@ -486,7 +551,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>40575</v>
       </c>
@@ -521,7 +586,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>40603</v>
       </c>
@@ -556,7 +621,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>40634</v>
       </c>
@@ -591,7 +656,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>40664</v>
       </c>
@@ -623,10 +688,10 @@
         <v>270</v>
       </c>
       <c r="K6">
-        <v>9.800000000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>40695</v>
       </c>
@@ -658,10 +723,10 @@
         <v>242</v>
       </c>
       <c r="K7">
-        <v>8.699999999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>40725</v>
       </c>
@@ -696,7 +761,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>40756</v>
       </c>
@@ -731,7 +796,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>40787</v>
       </c>
@@ -766,7 +831,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>40817</v>
       </c>
@@ -774,7 +839,7 @@
         <v>634</v>
       </c>
       <c r="C11">
-        <v>-9.300000000000001</v>
+        <v>-9.3000000000000007</v>
       </c>
       <c r="D11">
         <v>104.31</v>
@@ -801,7 +866,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>40848</v>
       </c>
@@ -836,7 +901,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>40878</v>
       </c>
@@ -853,7 +918,7 @@
         <v>1828</v>
       </c>
       <c r="F13">
-        <v>1.4025</v>
+        <v>1.4025000000000001</v>
       </c>
       <c r="G13">
         <v>8645</v>
@@ -871,7 +936,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>40909</v>
       </c>
@@ -906,7 +971,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>40940</v>
       </c>
@@ -923,7 +988,7 @@
         <v>1850</v>
       </c>
       <c r="F15">
-        <v>1.5075</v>
+        <v>1.5075000000000001</v>
       </c>
       <c r="G15">
         <v>11867</v>
@@ -941,7 +1006,7 @@
         <v>7.7</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>40969</v>
       </c>
@@ -973,10 +1038,10 @@
         <v>229</v>
       </c>
       <c r="K16">
-        <v>8.800000000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>41000</v>
       </c>
@@ -993,7 +1058,7 @@
         <v>1863</v>
       </c>
       <c r="F17">
-        <v>1.5575</v>
+        <v>1.5575000000000001</v>
       </c>
       <c r="G17">
         <v>4286</v>
@@ -1008,10 +1073,10 @@
         <v>222</v>
       </c>
       <c r="K17">
-        <v>8.300000000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>41030</v>
       </c>
@@ -1028,7 +1093,7 @@
         <v>1864</v>
       </c>
       <c r="F18">
-        <v>1.515</v>
+        <v>1.5149999999999999</v>
       </c>
       <c r="G18">
         <v>7942</v>
@@ -1043,10 +1108,10 @@
         <v>270</v>
       </c>
       <c r="K18">
-        <v>9.800000000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>41061</v>
       </c>
@@ -1063,7 +1128,7 @@
         <v>1865</v>
       </c>
       <c r="F19">
-        <v>1.4725</v>
+        <v>1.4724999999999999</v>
       </c>
       <c r="G19">
         <v>8369</v>
@@ -1081,7 +1146,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>41091</v>
       </c>
@@ -1116,7 +1181,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>41122</v>
       </c>
@@ -1124,7 +1189,7 @@
         <v>485</v>
       </c>
       <c r="C21">
-        <v>-10.2</v>
+        <v>-10.199999999999999</v>
       </c>
       <c r="D21">
         <v>106.44</v>
@@ -1151,7 +1216,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>41153</v>
       </c>
@@ -1186,7 +1251,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>41183</v>
       </c>
@@ -1194,7 +1259,7 @@
         <v>604</v>
       </c>
       <c r="C23">
-        <v>-8.699999999999999</v>
+        <v>-8.6999999999999993</v>
       </c>
       <c r="D23">
         <v>107.02</v>
@@ -1203,7 +1268,7 @@
         <v>1875</v>
       </c>
       <c r="F23">
-        <v>1.5575</v>
+        <v>1.5575000000000001</v>
       </c>
       <c r="G23">
         <v>9054</v>
@@ -1221,7 +1286,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>41214</v>
       </c>
@@ -1256,7 +1321,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>41244</v>
       </c>
@@ -1273,7 +1338,7 @@
         <v>1871</v>
       </c>
       <c r="F25">
-        <v>1.475</v>
+        <v>1.4750000000000001</v>
       </c>
       <c r="G25">
         <v>7149</v>
@@ -1291,7 +1356,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>41275</v>
       </c>
@@ -1326,7 +1391,7 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>41306</v>
       </c>
@@ -1361,7 +1426,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>41334</v>
       </c>
@@ -1378,7 +1443,7 @@
         <v>1889</v>
       </c>
       <c r="F28">
-        <v>1.5275</v>
+        <v>1.5275000000000001</v>
       </c>
       <c r="G28">
         <v>10321</v>
@@ -1396,7 +1461,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>41365</v>
       </c>
@@ -1413,7 +1478,7 @@
         <v>1892</v>
       </c>
       <c r="F29">
-        <v>1.5075</v>
+        <v>1.5075000000000001</v>
       </c>
       <c r="G29">
         <v>10737</v>
@@ -1431,7 +1496,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>41395</v>
       </c>
@@ -1466,7 +1531,7 @@
         <v>10.9</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>41426</v>
       </c>
@@ -1483,7 +1548,7 @@
         <v>1891</v>
       </c>
       <c r="F31">
-        <v>1.475</v>
+        <v>1.4750000000000001</v>
       </c>
       <c r="G31">
         <v>9775</v>
@@ -1501,7 +1566,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>41456</v>
       </c>
@@ -1536,7 +1601,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>41487</v>
       </c>
@@ -1553,7 +1618,7 @@
         <v>1888</v>
       </c>
       <c r="F33">
-        <v>1.505</v>
+        <v>1.5049999999999999</v>
       </c>
       <c r="G33">
         <v>8527</v>
@@ -1571,7 +1636,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>41518</v>
       </c>
@@ -1588,7 +1653,7 @@
         <v>1894</v>
       </c>
       <c r="F34">
-        <v>1.515</v>
+        <v>1.5149999999999999</v>
       </c>
       <c r="G34">
         <v>9196</v>
@@ -1606,7 +1671,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>41548</v>
       </c>
@@ -1623,7 +1688,7 @@
         <v>1897</v>
       </c>
       <c r="F35">
-        <v>1.4825</v>
+        <v>1.4824999999999999</v>
       </c>
       <c r="G35">
         <v>9964</v>
@@ -1641,7 +1706,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>41579</v>
       </c>
@@ -1676,7 +1741,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>41609</v>
       </c>
@@ -1693,7 +1758,7 @@
         <v>1901</v>
       </c>
       <c r="F37">
-        <v>1.4625</v>
+        <v>1.4624999999999999</v>
       </c>
       <c r="G37">
         <v>6744</v>
@@ -1711,7 +1776,7 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>41640</v>
       </c>
@@ -1746,7 +1811,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>41671</v>
       </c>
@@ -1778,10 +1843,10 @@
         <v>243</v>
       </c>
       <c r="K39">
-        <v>9.300000000000001</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>41699</v>
       </c>
@@ -1789,7 +1854,7 @@
         <v>929</v>
       </c>
       <c r="C40">
-        <v>-4.4</v>
+        <v>-4.4000000000000004</v>
       </c>
       <c r="D40">
         <v>108.98</v>
@@ -1798,7 +1863,7 @@
         <v>1909</v>
       </c>
       <c r="F40">
-        <v>1.4525</v>
+        <v>1.4524999999999999</v>
       </c>
       <c r="G40">
         <v>10490</v>
@@ -1813,10 +1878,10 @@
         <v>255</v>
       </c>
       <c r="K40">
-        <v>9.800000000000001</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>41730</v>
       </c>
@@ -1851,7 +1916,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>41760</v>
       </c>
@@ -1886,7 +1951,7 @@
         <v>10.9</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>41791</v>
       </c>
@@ -1894,7 +1959,7 @@
         <v>588</v>
       </c>
       <c r="C43">
-        <v>-4.1</v>
+        <v>-4.0999999999999996</v>
       </c>
       <c r="D43">
         <v>108.95</v>
@@ -1921,7 +1986,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>41821</v>
       </c>
@@ -1938,7 +2003,7 @@
         <v>1907</v>
       </c>
       <c r="F44">
-        <v>1.4825</v>
+        <v>1.4824999999999999</v>
       </c>
       <c r="G44">
         <v>8733</v>
@@ -1956,7 +2021,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>41852</v>
       </c>
@@ -1991,7 +2056,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>41883</v>
       </c>
@@ -2008,7 +2073,7 @@
         <v>1920</v>
       </c>
       <c r="F46">
-        <v>1.4625</v>
+        <v>1.4624999999999999</v>
       </c>
       <c r="G46">
         <v>9334</v>
@@ -2023,10 +2088,10 @@
         <v>218</v>
       </c>
       <c r="K46">
-        <v>8.300000000000001</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>41913</v>
       </c>
@@ -2061,7 +2126,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>41944</v>
       </c>
@@ -2069,7 +2134,7 @@
         <v>579</v>
       </c>
       <c r="C48">
-        <v>-8.199999999999999</v>
+        <v>-8.1999999999999993</v>
       </c>
       <c r="D48">
         <v>109.18</v>
@@ -2078,7 +2143,7 @@
         <v>1913</v>
       </c>
       <c r="F48">
-        <v>1.3925</v>
+        <v>1.3925000000000001</v>
       </c>
       <c r="G48">
         <v>8037</v>
@@ -2096,7 +2161,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>41974</v>
       </c>
@@ -2128,10 +2193,10 @@
         <v>230</v>
       </c>
       <c r="K49">
-        <v>8.800000000000001</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>42005</v>
       </c>
@@ -2148,7 +2213,7 @@
         <v>1897</v>
       </c>
       <c r="F50">
-        <v>1.2225</v>
+        <v>1.2224999999999999</v>
       </c>
       <c r="G50">
         <v>11227</v>
@@ -2166,7 +2231,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>42036</v>
       </c>
@@ -2201,7 +2266,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>42064</v>
       </c>
@@ -2218,7 +2283,7 @@
         <v>1908</v>
       </c>
       <c r="F52">
-        <v>1.3175</v>
+        <v>1.3174999999999999</v>
       </c>
       <c r="G52">
         <v>12170</v>
@@ -2236,7 +2301,7 @@
         <v>10.4</v>
       </c>
     </row>
-    <row r="53" spans="1:11">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>42095</v>
       </c>
@@ -2271,7 +2336,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="54" spans="1:11">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>42125</v>
       </c>
@@ -2288,7 +2353,7 @@
         <v>1907</v>
       </c>
       <c r="F54">
-        <v>1.3725</v>
+        <v>1.3725000000000001</v>
       </c>
       <c r="G54">
         <v>10045</v>
@@ -2306,7 +2371,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="55" spans="1:11">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>42156</v>
       </c>
@@ -2338,10 +2403,10 @@
         <v>280</v>
       </c>
       <c r="K55">
-        <v>10.2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11">
+        <v>10.199999999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>42186</v>
       </c>
@@ -2358,7 +2423,7 @@
         <v>1902</v>
       </c>
       <c r="F56">
-        <v>1.3475</v>
+        <v>1.3474999999999999</v>
       </c>
       <c r="G56">
         <v>9467</v>
@@ -2376,7 +2441,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="57" spans="1:11">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>42217</v>
       </c>
@@ -2411,7 +2476,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="58" spans="1:11">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>42248</v>
       </c>
@@ -2419,7 +2484,7 @@
         <v>755</v>
       </c>
       <c r="C58">
-        <v>-8.300000000000001</v>
+        <v>-8.3000000000000007</v>
       </c>
       <c r="D58">
         <v>108.93</v>
@@ -2428,7 +2493,7 @@
         <v>1908</v>
       </c>
       <c r="F58">
-        <v>1.2525</v>
+        <v>1.2524999999999999</v>
       </c>
       <c r="G58">
         <v>9472</v>
@@ -2446,7 +2511,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="59" spans="1:11">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>42278</v>
       </c>
@@ -2454,7 +2519,7 @@
         <v>700</v>
       </c>
       <c r="C59">
-        <v>-9.199999999999999</v>
+        <v>-9.1999999999999993</v>
       </c>
       <c r="D59">
         <v>109.1</v>
@@ -2478,10 +2543,10 @@
         <v>232</v>
       </c>
       <c r="K59">
-        <v>8.800000000000001</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>42309</v>
       </c>
@@ -2513,10 +2578,10 @@
         <v>214</v>
       </c>
       <c r="K60">
-        <v>8.300000000000001</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>42339</v>
       </c>
@@ -2533,7 +2598,7 @@
         <v>1906</v>
       </c>
       <c r="F61">
-        <v>1.1825</v>
+        <v>1.1825000000000001</v>
       </c>
       <c r="G61">
         <v>8947</v>
@@ -2548,10 +2613,10 @@
         <v>238</v>
       </c>
       <c r="K61">
-        <v>9.199999999999999</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>42370</v>
       </c>
@@ -2586,7 +2651,7 @@
         <v>9.4</v>
       </c>
     </row>
-    <row r="63" spans="1:11">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>42401</v>
       </c>
@@ -2603,7 +2668,7 @@
         <v>1900</v>
       </c>
       <c r="F63">
-        <v>1.1225</v>
+        <v>1.1225000000000001</v>
       </c>
       <c r="G63">
         <v>10652</v>
@@ -2618,10 +2683,10 @@
         <v>250</v>
       </c>
       <c r="K63">
-        <v>9.699999999999999</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>42430</v>
       </c>
@@ -2656,7 +2721,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="65" spans="1:11">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>42461</v>
       </c>
@@ -2688,10 +2753,10 @@
         <v>258</v>
       </c>
       <c r="K65">
-        <v>9.699999999999999</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>42491</v>
       </c>
@@ -2708,7 +2773,7 @@
         <v>1912</v>
       </c>
       <c r="F66">
-        <v>1.205</v>
+        <v>1.2050000000000001</v>
       </c>
       <c r="G66">
         <v>11594</v>
@@ -2726,7 +2791,7 @@
         <v>10.8</v>
       </c>
     </row>
-    <row r="67" spans="1:11">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>42522</v>
       </c>
@@ -2761,7 +2826,7 @@
         <v>9.4</v>
       </c>
     </row>
-    <row r="68" spans="1:11">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>42552</v>
       </c>
@@ -2778,7 +2843,7 @@
         <v>1912</v>
       </c>
       <c r="F68">
-        <v>1.215</v>
+        <v>1.2150000000000001</v>
       </c>
       <c r="G68">
         <v>9125</v>
@@ -2796,7 +2861,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="69" spans="1:11">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>42583</v>
       </c>
@@ -2831,7 +2896,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="70" spans="1:11">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>42614</v>
       </c>
@@ -2848,7 +2913,7 @@
         <v>1916</v>
       </c>
       <c r="F70">
-        <v>1.2025</v>
+        <v>1.2024999999999999</v>
       </c>
       <c r="G70">
         <v>10820</v>
@@ -2866,7 +2931,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="71" spans="1:11">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>42644</v>
       </c>
@@ -2883,7 +2948,7 @@
         <v>1920</v>
       </c>
       <c r="F71">
-        <v>1.245</v>
+        <v>1.2450000000000001</v>
       </c>
       <c r="G71">
         <v>10208</v>
@@ -2898,10 +2963,10 @@
         <v>216</v>
       </c>
       <c r="K71">
-        <v>8.199999999999999</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>42675</v>
       </c>
@@ -2918,7 +2983,7 @@
         <v>1921</v>
       </c>
       <c r="F72">
-        <v>1.235</v>
+        <v>1.2350000000000001</v>
       </c>
       <c r="G72">
         <v>10192</v>
@@ -2936,7 +3001,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="73" spans="1:11">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>42705</v>
       </c>
@@ -2953,7 +3018,7 @@
         <v>1925</v>
       </c>
       <c r="F73">
-        <v>1.285</v>
+        <v>1.2849999999999999</v>
       </c>
       <c r="G73">
         <v>9502</v>
@@ -2971,7 +3036,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="74" spans="1:11">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>42736</v>
       </c>
@@ -3003,10 +3068,10 @@
         <v>240</v>
       </c>
       <c r="K74">
-        <v>9.300000000000001</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>42767</v>
       </c>
@@ -3041,7 +3106,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="76" spans="1:11">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>42795</v>
       </c>
@@ -3058,7 +3123,7 @@
         <v>1923</v>
       </c>
       <c r="F76">
-        <v>1.3075</v>
+        <v>1.3075000000000001</v>
       </c>
       <c r="G76">
         <v>12739</v>
@@ -3076,7 +3141,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="77" spans="1:11">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>42826</v>
       </c>
@@ -3093,7 +3158,7 @@
         <v>1929</v>
       </c>
       <c r="F77">
-        <v>1.3175</v>
+        <v>1.3174999999999999</v>
       </c>
       <c r="G77">
         <v>10696</v>
@@ -3111,7 +3176,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="78" spans="1:11">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>42856</v>
       </c>
@@ -3146,7 +3211,7 @@
         <v>10.9</v>
       </c>
     </row>
-    <row r="79" spans="1:11">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>42887</v>
       </c>
@@ -3163,7 +3228,7 @@
         <v>1928</v>
       </c>
       <c r="F79">
-        <v>1.2675</v>
+        <v>1.2675000000000001</v>
       </c>
       <c r="G79">
         <v>12276</v>
@@ -3181,7 +3246,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="80" spans="1:11">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>42917</v>
       </c>
@@ -3216,7 +3281,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="81" spans="1:11">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>42948</v>
       </c>
@@ -3233,7 +3298,7 @@
         <v>1927</v>
       </c>
       <c r="F81">
-        <v>1.265</v>
+        <v>1.2649999999999999</v>
       </c>
       <c r="G81">
         <v>10933</v>
@@ -3251,7 +3316,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="82" spans="1:11">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>42979</v>
       </c>
@@ -3268,7 +3333,7 @@
         <v>1931</v>
       </c>
       <c r="F82">
-        <v>1.2975</v>
+        <v>1.2975000000000001</v>
       </c>
       <c r="G82">
         <v>10542</v>
@@ -3283,10 +3348,10 @@
         <v>219</v>
       </c>
       <c r="K82">
-        <v>8.300000000000001</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>43009</v>
       </c>
@@ -3294,7 +3359,7 @@
         <v>763</v>
       </c>
       <c r="C83">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="D83">
         <v>110.21</v>
@@ -3321,7 +3386,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="84" spans="1:11">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>43040</v>
       </c>
@@ -3356,7 +3421,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="85" spans="1:11">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>43070</v>
       </c>
@@ -3391,7 +3456,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="86" spans="1:11">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>43101</v>
       </c>
@@ -3408,7 +3473,7 @@
         <v>1929</v>
       </c>
       <c r="F86">
-        <v>1.3375</v>
+        <v>1.3374999999999999</v>
       </c>
       <c r="G86">
         <v>15092</v>
@@ -3426,7 +3491,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="87" spans="1:11">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>43132</v>
       </c>
@@ -3434,7 +3499,7 @@
         <v>697</v>
       </c>
       <c r="C87">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="D87">
         <v>110.45</v>
@@ -3443,7 +3508,7 @@
         <v>1935</v>
       </c>
       <c r="F87">
-        <v>1.3075</v>
+        <v>1.3075000000000001</v>
       </c>
       <c r="G87">
         <v>10314</v>
@@ -3458,10 +3523,10 @@
         <v>234</v>
       </c>
       <c r="K87">
-        <v>8.800000000000001</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>43160</v>
       </c>
@@ -3496,7 +3561,7 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="89" spans="1:11">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>43191</v>
       </c>
@@ -3531,7 +3596,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="90" spans="1:11">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>43221</v>
       </c>
@@ -3539,7 +3604,7 @@
         <v>504</v>
       </c>
       <c r="C90">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="D90">
         <v>111.07</v>
@@ -3563,10 +3628,10 @@
         <v>258</v>
       </c>
       <c r="K90">
-        <v>9.300000000000001</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>43252</v>
       </c>
@@ -3601,7 +3666,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="92" spans="1:11">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>43282</v>
       </c>
@@ -3636,7 +3701,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="93" spans="1:11">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>43313</v>
       </c>
@@ -3653,7 +3718,7 @@
         <v>1951</v>
       </c>
       <c r="F93">
-        <v>1.4125</v>
+        <v>1.4125000000000001</v>
       </c>
       <c r="G93">
         <v>13070</v>
@@ -3671,7 +3736,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="94" spans="1:11">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>43344</v>
       </c>
@@ -3706,7 +3771,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="95" spans="1:11">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>43374</v>
       </c>
@@ -3723,7 +3788,7 @@
         <v>1960</v>
       </c>
       <c r="F95">
-        <v>1.4525</v>
+        <v>1.4524999999999999</v>
       </c>
       <c r="G95">
         <v>9292</v>
@@ -3741,7 +3806,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="96" spans="1:11">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>43405</v>
       </c>
@@ -3758,7 +3823,7 @@
         <v>1960</v>
       </c>
       <c r="F96">
-        <v>1.455</v>
+        <v>1.4550000000000001</v>
       </c>
       <c r="G96">
         <v>9927</v>
@@ -3776,7 +3841,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="97" spans="1:11">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>43435</v>
       </c>
@@ -3811,7 +3876,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="98" spans="1:11">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>43466</v>
       </c>
@@ -3846,7 +3911,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="99" spans="1:11">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>43497</v>
       </c>
@@ -3881,7 +3946,7 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="100" spans="1:11">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>43525</v>
       </c>
@@ -3889,7 +3954,7 @@
         <v>744</v>
       </c>
       <c r="C100">
-        <v>-2.3</v>
+        <v>-2.2999999999999998</v>
       </c>
       <c r="D100">
         <v>111.91</v>
@@ -3898,7 +3963,7 @@
         <v>1961</v>
       </c>
       <c r="F100">
-        <v>1.3725</v>
+        <v>1.3725000000000001</v>
       </c>
       <c r="G100">
         <v>10659</v>
@@ -3916,7 +3981,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="101" spans="1:11">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>43556</v>
       </c>
@@ -3951,7 +4016,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="102" spans="1:11">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>43586</v>
       </c>
@@ -3986,7 +4051,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="103" spans="1:11">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <v>43617</v>
       </c>
@@ -3994,7 +4059,7 @@
         <v>520</v>
       </c>
       <c r="C103">
-        <v>-4.6</v>
+        <v>-4.5999999999999996</v>
       </c>
       <c r="D103">
         <v>112.45</v>
@@ -4021,7 +4086,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="104" spans="1:11">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>43647</v>
       </c>
@@ -4056,7 +4121,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="105" spans="1:11">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>43678</v>
       </c>
@@ -4091,7 +4156,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="106" spans="1:11">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <v>43709</v>
       </c>
@@ -4126,7 +4191,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="107" spans="1:11">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
         <v>43739</v>
       </c>
@@ -4161,7 +4226,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="108" spans="1:11">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
         <v>43770</v>
       </c>
@@ -4196,7 +4261,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="109" spans="1:11">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
         <v>43800</v>
       </c>
@@ -4231,7 +4296,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="110" spans="1:11">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
         <v>43831</v>
       </c>
@@ -4239,7 +4304,7 @@
         <v>492</v>
       </c>
       <c r="C110">
-        <v>-4.6</v>
+        <v>-4.5999999999999996</v>
       </c>
       <c r="D110">
         <v>112.41</v>
@@ -4266,7 +4331,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="111" spans="1:11">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
         <v>43862</v>
       </c>
@@ -4301,7 +4366,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="112" spans="1:11">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
         <v>43891</v>
       </c>
@@ -4318,7 +4383,7 @@
         <v>1973</v>
       </c>
       <c r="F112">
-        <v>1.255</v>
+        <v>1.2549999999999999</v>
       </c>
       <c r="G112">
         <v>10421</v>
@@ -4336,7 +4401,7 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="113" spans="1:11">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
         <v>43922</v>
       </c>
@@ -4371,7 +4436,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="114" spans="1:11">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
         <v>43952</v>
       </c>
@@ -4406,7 +4471,7 @@
         <v>10.9</v>
       </c>
     </row>
-    <row r="115" spans="1:11">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
         <v>43983</v>
       </c>
@@ -4441,7 +4506,7 @@
         <v>7.7</v>
       </c>
     </row>
-    <row r="116" spans="1:11">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
         <v>44013</v>
       </c>
@@ -4476,7 +4541,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="117" spans="1:11">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
         <v>44044</v>
       </c>
@@ -4484,7 +4549,7 @@
         <v>366</v>
       </c>
       <c r="C117">
-        <v>-5.1</v>
+        <v>-5.0999999999999996</v>
       </c>
       <c r="D117">
         <v>112.83</v>
@@ -4493,7 +4558,7 @@
         <v>1977</v>
       </c>
       <c r="F117">
-        <v>1.2575</v>
+        <v>1.2575000000000001</v>
       </c>
       <c r="G117">
         <v>9526</v>
@@ -4511,7 +4576,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="118" spans="1:11">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
         <v>44075</v>
       </c>
@@ -4546,7 +4611,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="119" spans="1:11">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
         <v>44105</v>
       </c>
@@ -4563,7 +4628,7 @@
         <v>1979</v>
       </c>
       <c r="F119">
-        <v>1.235</v>
+        <v>1.2350000000000001</v>
       </c>
       <c r="G119">
         <v>8716</v>
@@ -4581,7 +4646,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="120" spans="1:11">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
         <v>44136</v>
       </c>
@@ -4598,7 +4663,7 @@
         <v>1977</v>
       </c>
       <c r="F120">
-        <v>1.2025</v>
+        <v>1.2024999999999999</v>
       </c>
       <c r="G120">
         <v>8447</v>
@@ -4616,7 +4681,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="121" spans="1:11">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
         <v>44166</v>
       </c>
@@ -4624,7 +4689,7 @@
         <v>289</v>
       </c>
       <c r="C121">
-        <v>-4.6</v>
+        <v>-4.5999999999999996</v>
       </c>
       <c r="D121">
         <v>113.02</v>
@@ -4633,7 +4698,7 @@
         <v>1980</v>
       </c>
       <c r="F121">
-        <v>1.2525</v>
+        <v>1.2524999999999999</v>
       </c>
       <c r="G121">
         <v>9473</v>
@@ -4651,7 +4716,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="122" spans="1:11">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
         <v>44197</v>
       </c>
@@ -4683,10 +4748,10 @@
         <v>237</v>
       </c>
       <c r="K122">
-        <v>8.800000000000001</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
         <v>44228</v>
       </c>
@@ -4718,10 +4783,10 @@
         <v>224</v>
       </c>
       <c r="K123">
-        <v>8.300000000000001</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
         <v>44256</v>
       </c>
@@ -4738,7 +4803,7 @@
         <v>1999</v>
       </c>
       <c r="F124">
-        <v>1.4425</v>
+        <v>1.4424999999999999</v>
       </c>
       <c r="G124">
         <v>11875</v>
@@ -4753,10 +4818,10 @@
         <v>223</v>
       </c>
       <c r="K124">
-        <v>8.199999999999999</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
         <v>44287</v>
       </c>
@@ -4791,7 +4856,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="126" spans="1:11">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
         <v>44317</v>
       </c>
@@ -4826,7 +4891,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="127" spans="1:11">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
         <v>44348</v>
       </c>
@@ -4834,7 +4899,7 @@
         <v>256</v>
       </c>
       <c r="C127">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="D127">
         <v>114.62</v>
@@ -4843,7 +4908,7 @@
         <v>2008</v>
       </c>
       <c r="F127">
-        <v>1.4625</v>
+        <v>1.4624999999999999</v>
       </c>
       <c r="G127">
         <v>11246</v>
@@ -4861,7 +4926,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="128" spans="1:11">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
         <v>44378</v>
       </c>
@@ -4869,7 +4934,7 @@
         <v>236</v>
       </c>
       <c r="C128">
-        <v>4.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="D128">
         <v>115</v>
@@ -4878,7 +4943,7 @@
         <v>2015</v>
       </c>
       <c r="F128">
-        <v>1.505</v>
+        <v>1.5049999999999999</v>
       </c>
       <c r="G128">
         <v>8214</v>
@@ -4896,7 +4961,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="129" spans="1:11">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
         <v>44409</v>
       </c>
@@ -4931,7 +4996,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="130" spans="1:11">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
         <v>44440</v>
       </c>
@@ -4948,7 +5013,7 @@
         <v>2026</v>
       </c>
       <c r="F130">
-        <v>1.5175</v>
+        <v>1.5175000000000001</v>
       </c>
       <c r="G130">
         <v>7594</v>
@@ -4966,7 +5031,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="131" spans="1:11">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
         <v>44470</v>
       </c>
@@ -5001,7 +5066,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="132" spans="1:11">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
         <v>44501</v>
       </c>
@@ -5036,7 +5101,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="133" spans="1:11">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
         <v>44531</v>
       </c>
@@ -5071,7 +5136,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="134" spans="1:11">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
         <v>44562</v>
       </c>
@@ -5088,7 +5153,7 @@
         <v>2074</v>
       </c>
       <c r="F134">
-        <v>1.7025</v>
+        <v>1.7024999999999999</v>
       </c>
       <c r="G134">
         <v>8892</v>
@@ -5106,7 +5171,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="135" spans="1:11">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="2">
         <v>44593</v>
       </c>
@@ -5141,7 +5206,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="136" spans="1:11">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
         <v>44621</v>
       </c>
@@ -5158,7 +5223,7 @@
         <v>2115</v>
       </c>
       <c r="F136">
-        <v>2.235</v>
+        <v>2.2349999999999999</v>
       </c>
       <c r="G136">
         <v>8589</v>
@@ -5176,7 +5241,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="137" spans="1:11">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="2">
         <v>44652</v>
       </c>
@@ -5211,7 +5276,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="138" spans="1:11">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
         <v>44682</v>
       </c>
@@ -5228,7 +5293,7 @@
         <v>2149</v>
       </c>
       <c r="F138">
-        <v>2.175</v>
+        <v>2.1749999999999998</v>
       </c>
       <c r="G138">
         <v>8798</v>
@@ -5246,7 +5311,7 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="139" spans="1:11">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
         <v>44713</v>
       </c>
@@ -5263,7 +5328,7 @@
         <v>2165</v>
       </c>
       <c r="F139">
-        <v>2.4075</v>
+        <v>2.4075000000000002</v>
       </c>
       <c r="G139">
         <v>8305</v>
@@ -5281,7 +5346,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="140" spans="1:11">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
         <v>44743</v>
       </c>
@@ -5298,7 +5363,7 @@
         <v>2172</v>
       </c>
       <c r="F140">
-        <v>2.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="G140">
         <v>6101</v>
@@ -5316,7 +5381,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="141" spans="1:11">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
         <v>44774</v>
       </c>

--- a/5. Master_thesis/output.xlsx
+++ b/5. Master_thesis/output.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git_Projects\5. Master_thesis\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3E4800C-1A88-47D3-B2F9-9DDDCC8CF9BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Orders</t>
   </si>
@@ -34,22 +28,37 @@
     <t>CoL</t>
   </si>
   <si>
+    <t>Light_fuel_oil</t>
+  </si>
+  <si>
+    <t>Diesel</t>
+  </si>
+  <si>
+    <t>Petrol_95</t>
+  </si>
+  <si>
+    <t>Petrol_98</t>
+  </si>
+  <si>
     <t>Avg_fuel_price</t>
+  </si>
+  <si>
+    <t>Passenger_cars</t>
+  </si>
+  <si>
+    <t>Vans</t>
   </si>
   <si>
     <t>TIV</t>
   </si>
   <si>
-    <t>Active_Population_1K_persons</t>
+    <t>Unemployment_rate_%</t>
   </si>
   <si>
-    <t>Employed_1K_persons</t>
+    <t>Long_term_interest_rates</t>
   </si>
   <si>
-    <t>Unemployed_1K_persons</t>
-  </si>
-  <si>
-    <t>Unemployment_rate_%</t>
+    <t>GDP</t>
   </si>
   <si>
     <t>Date</t>
@@ -58,11 +67,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,14 +137,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -182,7 +183,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -214,27 +215,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -266,24 +249,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -459,31 +424,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K141"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:P141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="29" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.5703125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -515,13 +465,28 @@
       <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" s="2">
         <v>40544</v>
       </c>
       <c r="B2">
-        <v>900</v>
+        <v>625</v>
       </c>
       <c r="C2">
         <v>0.3</v>
@@ -533,30 +498,45 @@
         <v>1783</v>
       </c>
       <c r="F2">
-        <v>1.3574999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="G2">
+        <v>1.31</v>
+      </c>
+      <c r="H2">
+        <v>1.51</v>
+      </c>
+      <c r="I2">
+        <v>1.56</v>
+      </c>
+      <c r="J2">
+        <v>1.3575</v>
+      </c>
+      <c r="K2">
+        <v>13788</v>
+      </c>
+      <c r="L2">
+        <v>1205</v>
+      </c>
+      <c r="M2">
         <v>14993</v>
       </c>
-      <c r="H2">
-        <v>2584</v>
-      </c>
-      <c r="I2">
-        <v>2363</v>
-      </c>
-      <c r="J2">
-        <v>221</v>
-      </c>
-      <c r="K2">
+      <c r="N2">
         <v>8.6</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O2">
+        <v>3.27</v>
+      </c>
+      <c r="P2">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" s="2">
         <v>40575</v>
       </c>
       <c r="B3">
-        <v>672</v>
+        <v>444</v>
       </c>
       <c r="C3">
         <v>0.4</v>
@@ -568,30 +548,45 @@
         <v>1794</v>
       </c>
       <c r="F3">
+        <v>1.02</v>
+      </c>
+      <c r="G3">
+        <v>1.32</v>
+      </c>
+      <c r="H3">
+        <v>1.5</v>
+      </c>
+      <c r="I3">
+        <v>1.56</v>
+      </c>
+      <c r="J3">
         <v>1.35</v>
       </c>
-      <c r="G3">
+      <c r="K3">
+        <v>9304</v>
+      </c>
+      <c r="L3">
+        <v>966</v>
+      </c>
+      <c r="M3">
         <v>10270</v>
       </c>
-      <c r="H3">
-        <v>2619</v>
-      </c>
-      <c r="I3">
-        <v>2395</v>
-      </c>
-      <c r="J3">
-        <v>224</v>
-      </c>
-      <c r="K3">
+      <c r="N3">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O3">
+        <v>3.41</v>
+      </c>
+      <c r="P3">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" s="2">
         <v>40603</v>
       </c>
       <c r="B4">
-        <v>916</v>
+        <v>686</v>
       </c>
       <c r="C4">
         <v>-0.2</v>
@@ -603,30 +598,45 @@
         <v>1804</v>
       </c>
       <c r="F4">
+        <v>1.09</v>
+      </c>
+      <c r="G4">
+        <v>1.38</v>
+      </c>
+      <c r="H4">
+        <v>1.56</v>
+      </c>
+      <c r="I4">
+        <v>1.61</v>
+      </c>
+      <c r="J4">
         <v>1.41</v>
       </c>
-      <c r="G4">
+      <c r="K4">
+        <v>12585</v>
+      </c>
+      <c r="L4">
+        <v>1342</v>
+      </c>
+      <c r="M4">
         <v>13927</v>
       </c>
-      <c r="H4">
-        <v>2596</v>
-      </c>
-      <c r="I4">
-        <v>2340</v>
-      </c>
-      <c r="J4">
-        <v>256</v>
-      </c>
-      <c r="K4">
+      <c r="N4">
         <v>9.9</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O4">
+        <v>3.45</v>
+      </c>
+      <c r="P4">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" s="2">
         <v>40634</v>
       </c>
       <c r="B5">
-        <v>786</v>
+        <v>489</v>
       </c>
       <c r="C5">
         <v>-0.6</v>
@@ -638,30 +648,45 @@
         <v>1807</v>
       </c>
       <c r="F5">
+        <v>1.1</v>
+      </c>
+      <c r="G5">
+        <v>1.38</v>
+      </c>
+      <c r="H5">
+        <v>1.57</v>
+      </c>
+      <c r="I5">
+        <v>1.63</v>
+      </c>
+      <c r="J5">
         <v>1.42</v>
       </c>
-      <c r="G5">
+      <c r="K5">
+        <v>11406</v>
+      </c>
+      <c r="L5">
+        <v>1085</v>
+      </c>
+      <c r="M5">
         <v>12491</v>
       </c>
-      <c r="H5">
-        <v>2650</v>
-      </c>
-      <c r="I5">
-        <v>2428</v>
-      </c>
-      <c r="J5">
-        <v>222</v>
-      </c>
-      <c r="K5">
+      <c r="N5">
         <v>8.4</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O5">
+        <v>3.57</v>
+      </c>
+      <c r="P5">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" s="2">
         <v>40664</v>
       </c>
       <c r="B6">
-        <v>763</v>
+        <v>535</v>
       </c>
       <c r="C6">
         <v>-1.5</v>
@@ -673,30 +698,45 @@
         <v>1808</v>
       </c>
       <c r="F6">
+        <v>1.04</v>
+      </c>
+      <c r="G6">
+        <v>1.38</v>
+      </c>
+      <c r="H6">
+        <v>1.59</v>
+      </c>
+      <c r="I6">
+        <v>1.65</v>
+      </c>
+      <c r="J6">
         <v>1.415</v>
       </c>
-      <c r="G6">
+      <c r="K6">
+        <v>13040</v>
+      </c>
+      <c r="L6">
+        <v>1179</v>
+      </c>
+      <c r="M6">
         <v>14219</v>
       </c>
-      <c r="H6">
-        <v>2754</v>
-      </c>
-      <c r="I6">
-        <v>2483</v>
-      </c>
-      <c r="J6">
-        <v>270</v>
-      </c>
-      <c r="K6">
-        <v>9.8000000000000007</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N6">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="O6">
+        <v>3.32</v>
+      </c>
+      <c r="P6">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7" s="2">
         <v>40695</v>
       </c>
       <c r="B7">
-        <v>644</v>
+        <v>441</v>
       </c>
       <c r="C7">
         <v>-5.8</v>
@@ -708,30 +748,45 @@
         <v>1813</v>
       </c>
       <c r="F7">
+        <v>1.07</v>
+      </c>
+      <c r="G7">
+        <v>1.37</v>
+      </c>
+      <c r="H7">
+        <v>1.58</v>
+      </c>
+      <c r="I7">
+        <v>1.64</v>
+      </c>
+      <c r="J7">
         <v>1.415</v>
       </c>
-      <c r="G7">
+      <c r="K7">
+        <v>11235</v>
+      </c>
+      <c r="L7">
+        <v>1242</v>
+      </c>
+      <c r="M7">
         <v>12477</v>
       </c>
-      <c r="H7">
-        <v>2768</v>
-      </c>
-      <c r="I7">
-        <v>2527</v>
-      </c>
-      <c r="J7">
-        <v>242</v>
-      </c>
-      <c r="K7">
-        <v>8.6999999999999993</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N7">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="O7">
+        <v>3.29</v>
+      </c>
+      <c r="P7">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8" s="2">
         <v>40725</v>
       </c>
       <c r="B8">
-        <v>530</v>
+        <v>427</v>
       </c>
       <c r="C8">
         <v>-5.5</v>
@@ -743,30 +798,45 @@
         <v>1808</v>
       </c>
       <c r="F8">
+        <v>1.08</v>
+      </c>
+      <c r="G8">
+        <v>1.37</v>
+      </c>
+      <c r="H8">
+        <v>1.58</v>
+      </c>
+      <c r="I8">
+        <v>1.63</v>
+      </c>
+      <c r="J8">
         <v>1.415</v>
       </c>
-      <c r="G8">
+      <c r="K8">
+        <v>8616</v>
+      </c>
+      <c r="L8">
+        <v>874</v>
+      </c>
+      <c r="M8">
         <v>9490</v>
       </c>
-      <c r="H8">
-        <v>2732</v>
-      </c>
-      <c r="I8">
-        <v>2538</v>
-      </c>
-      <c r="J8">
-        <v>194</v>
-      </c>
-      <c r="K8">
+      <c r="N8">
         <v>7.1</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O8">
+        <v>3.16</v>
+      </c>
+      <c r="P8">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9" s="2">
         <v>40756</v>
       </c>
       <c r="B9">
-        <v>689</v>
+        <v>488</v>
       </c>
       <c r="C9">
         <v>-8.9</v>
@@ -778,30 +848,45 @@
         <v>1815</v>
       </c>
       <c r="F9">
+        <v>1.01</v>
+      </c>
+      <c r="G9">
+        <v>1.37</v>
+      </c>
+      <c r="H9">
+        <v>1.58</v>
+      </c>
+      <c r="I9">
+        <v>1.63</v>
+      </c>
+      <c r="J9">
         <v>1.3975</v>
       </c>
-      <c r="G9">
+      <c r="K9">
+        <v>10024</v>
+      </c>
+      <c r="L9">
+        <v>1098</v>
+      </c>
+      <c r="M9">
         <v>11122</v>
       </c>
-      <c r="H9">
-        <v>2675</v>
-      </c>
-      <c r="I9">
-        <v>2499</v>
-      </c>
-      <c r="J9">
-        <v>177</v>
-      </c>
-      <c r="K9">
+      <c r="N9">
         <v>6.6</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O9">
+        <v>2.68</v>
+      </c>
+      <c r="P9">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10" s="2">
         <v>40787</v>
       </c>
       <c r="B10">
-        <v>842</v>
+        <v>662</v>
       </c>
       <c r="C10">
         <v>-9.5</v>
@@ -813,33 +898,48 @@
         <v>1823</v>
       </c>
       <c r="F10">
+        <v>1.07</v>
+      </c>
+      <c r="G10">
+        <v>1.37</v>
+      </c>
+      <c r="H10">
+        <v>1.58</v>
+      </c>
+      <c r="I10">
+        <v>1.64</v>
+      </c>
+      <c r="J10">
         <v>1.415</v>
       </c>
-      <c r="G10">
+      <c r="K10">
+        <v>10111</v>
+      </c>
+      <c r="L10">
+        <v>1190</v>
+      </c>
+      <c r="M10">
         <v>11301</v>
       </c>
-      <c r="H10">
-        <v>2602</v>
-      </c>
-      <c r="I10">
-        <v>2420</v>
-      </c>
-      <c r="J10">
-        <v>182</v>
-      </c>
-      <c r="K10">
+      <c r="N10">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O10">
+        <v>2.35</v>
+      </c>
+      <c r="P10">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11" s="2">
         <v>40817</v>
       </c>
       <c r="B11">
-        <v>634</v>
+        <v>412</v>
       </c>
       <c r="C11">
-        <v>-9.3000000000000007</v>
+        <v>-9.300000000000001</v>
       </c>
       <c r="D11">
         <v>104.31</v>
@@ -848,30 +948,45 @@
         <v>1827</v>
       </c>
       <c r="F11">
+        <v>1.07</v>
+      </c>
+      <c r="G11">
+        <v>1.36</v>
+      </c>
+      <c r="H11">
+        <v>1.57</v>
+      </c>
+      <c r="I11">
+        <v>1.62</v>
+      </c>
+      <c r="J11">
         <v>1.405</v>
       </c>
-      <c r="G11">
+      <c r="K11">
+        <v>10070</v>
+      </c>
+      <c r="L11">
+        <v>1200</v>
+      </c>
+      <c r="M11">
         <v>11270</v>
       </c>
-      <c r="H11">
-        <v>2606</v>
-      </c>
-      <c r="I11">
-        <v>2420</v>
-      </c>
-      <c r="J11">
-        <v>186</v>
-      </c>
-      <c r="K11">
+      <c r="N11">
         <v>7.1</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O11">
+        <v>2.51</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12" s="2">
         <v>40848</v>
       </c>
       <c r="B12">
-        <v>569</v>
+        <v>372</v>
       </c>
       <c r="C12">
         <v>-10.6</v>
@@ -883,30 +998,45 @@
         <v>1829</v>
       </c>
       <c r="F12">
+        <v>1.13</v>
+      </c>
+      <c r="G12">
+        <v>1.4</v>
+      </c>
+      <c r="H12">
+        <v>1.56</v>
+      </c>
+      <c r="I12">
+        <v>1.62</v>
+      </c>
+      <c r="J12">
         <v>1.4275</v>
       </c>
-      <c r="G12">
+      <c r="K12">
+        <v>9060</v>
+      </c>
+      <c r="L12">
+        <v>1357</v>
+      </c>
+      <c r="M12">
         <v>10417</v>
       </c>
-      <c r="H12">
-        <v>2651</v>
-      </c>
-      <c r="I12">
-        <v>2483</v>
-      </c>
-      <c r="J12">
-        <v>168</v>
-      </c>
-      <c r="K12">
+      <c r="N12">
         <v>6.3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O12">
+        <v>2.54</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13" s="2">
         <v>40878</v>
       </c>
       <c r="B13">
-        <v>402</v>
+        <v>214</v>
       </c>
       <c r="C13">
         <v>-10.4</v>
@@ -918,30 +1048,45 @@
         <v>1828</v>
       </c>
       <c r="F13">
-        <v>1.4025000000000001</v>
+        <v>1.09</v>
       </c>
       <c r="G13">
+        <v>1.4</v>
+      </c>
+      <c r="H13">
+        <v>1.53</v>
+      </c>
+      <c r="I13">
+        <v>1.59</v>
+      </c>
+      <c r="J13">
+        <v>1.4025</v>
+      </c>
+      <c r="K13">
+        <v>6891</v>
+      </c>
+      <c r="L13">
+        <v>1754</v>
+      </c>
+      <c r="M13">
         <v>8645</v>
       </c>
-      <c r="H13">
-        <v>2568</v>
-      </c>
-      <c r="I13">
-        <v>2374</v>
-      </c>
-      <c r="J13">
-        <v>194</v>
-      </c>
-      <c r="K13">
+      <c r="N13">
         <v>7.6</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O13">
+        <v>2.52</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
       <c r="A14" s="2">
         <v>40909</v>
       </c>
       <c r="B14">
-        <v>1024</v>
+        <v>748</v>
       </c>
       <c r="C14">
         <v>-7</v>
@@ -953,30 +1098,45 @@
         <v>1840</v>
       </c>
       <c r="F14">
+        <v>1.14</v>
+      </c>
+      <c r="G14">
+        <v>1.55</v>
+      </c>
+      <c r="H14">
+        <v>1.6</v>
+      </c>
+      <c r="I14">
+        <v>1.66</v>
+      </c>
+      <c r="J14">
         <v>1.4875</v>
       </c>
-      <c r="G14">
+      <c r="K14">
+        <v>14270</v>
+      </c>
+      <c r="L14">
+        <v>1263</v>
+      </c>
+      <c r="M14">
         <v>15533</v>
       </c>
-      <c r="H14">
-        <v>2571</v>
-      </c>
-      <c r="I14">
-        <v>2361</v>
-      </c>
-      <c r="J14">
-        <v>209</v>
-      </c>
-      <c r="K14">
+      <c r="N14">
         <v>8.1</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O14">
+        <v>2.28</v>
+      </c>
+      <c r="P14">
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
       <c r="A15" s="2">
         <v>40940</v>
       </c>
       <c r="B15">
-        <v>771</v>
+        <v>558</v>
       </c>
       <c r="C15">
         <v>-3.9</v>
@@ -988,30 +1148,45 @@
         <v>1850</v>
       </c>
       <c r="F15">
-        <v>1.5075000000000001</v>
+        <v>1.13</v>
       </c>
       <c r="G15">
+        <v>1.57</v>
+      </c>
+      <c r="H15">
+        <v>1.64</v>
+      </c>
+      <c r="I15">
+        <v>1.69</v>
+      </c>
+      <c r="J15">
+        <v>1.5075</v>
+      </c>
+      <c r="K15">
+        <v>10626</v>
+      </c>
+      <c r="L15">
+        <v>1241</v>
+      </c>
+      <c r="M15">
         <v>11867</v>
       </c>
-      <c r="H15">
-        <v>2638</v>
-      </c>
-      <c r="I15">
-        <v>2435</v>
-      </c>
-      <c r="J15">
-        <v>203</v>
-      </c>
-      <c r="K15">
+      <c r="N15">
         <v>7.7</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O15">
+        <v>2.34</v>
+      </c>
+      <c r="P15">
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
       <c r="A16" s="2">
         <v>40969</v>
       </c>
       <c r="B16">
-        <v>1266</v>
+        <v>1003</v>
       </c>
       <c r="C16">
         <v>-5.6</v>
@@ -1023,30 +1198,45 @@
         <v>1857</v>
       </c>
       <c r="F16">
+        <v>1.17</v>
+      </c>
+      <c r="G16">
+        <v>1.58</v>
+      </c>
+      <c r="H16">
+        <v>1.68</v>
+      </c>
+      <c r="I16">
+        <v>1.73</v>
+      </c>
+      <c r="J16">
         <v>1.54</v>
       </c>
-      <c r="G16">
+      <c r="K16">
+        <v>22938</v>
+      </c>
+      <c r="L16">
+        <v>2691</v>
+      </c>
+      <c r="M16">
         <v>25629</v>
       </c>
-      <c r="H16">
-        <v>2610</v>
-      </c>
-      <c r="I16">
-        <v>2381</v>
-      </c>
-      <c r="J16">
-        <v>229</v>
-      </c>
-      <c r="K16">
-        <v>8.8000000000000007</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N16">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="O16">
+        <v>2.3</v>
+      </c>
+      <c r="P16">
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17" s="2">
         <v>41000</v>
       </c>
       <c r="B17">
-        <v>351</v>
+        <v>190</v>
       </c>
       <c r="C17">
         <v>-2.9</v>
@@ -1058,30 +1248,45 @@
         <v>1863</v>
       </c>
       <c r="F17">
-        <v>1.5575000000000001</v>
+        <v>1.15</v>
       </c>
       <c r="G17">
+        <v>1.58</v>
+      </c>
+      <c r="H17">
+        <v>1.72</v>
+      </c>
+      <c r="I17">
+        <v>1.78</v>
+      </c>
+      <c r="J17">
+        <v>1.5575</v>
+      </c>
+      <c r="K17">
+        <v>4061</v>
+      </c>
+      <c r="L17">
+        <v>225</v>
+      </c>
+      <c r="M17">
         <v>4286</v>
       </c>
-      <c r="H17">
-        <v>2661</v>
-      </c>
-      <c r="I17">
-        <v>2440</v>
-      </c>
-      <c r="J17">
-        <v>222</v>
-      </c>
-      <c r="K17">
-        <v>8.3000000000000007</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N17">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="O17">
+        <v>2.15</v>
+      </c>
+      <c r="P17">
+        <v>-1.1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18" s="2">
         <v>41030</v>
       </c>
       <c r="B18">
-        <v>411</v>
+        <v>279</v>
       </c>
       <c r="C18">
         <v>-2.6</v>
@@ -1093,30 +1298,45 @@
         <v>1864</v>
       </c>
       <c r="F18">
-        <v>1.5149999999999999</v>
+        <v>1.11</v>
       </c>
       <c r="G18">
+        <v>1.53</v>
+      </c>
+      <c r="H18">
+        <v>1.68</v>
+      </c>
+      <c r="I18">
+        <v>1.74</v>
+      </c>
+      <c r="J18">
+        <v>1.515</v>
+      </c>
+      <c r="K18">
+        <v>7316</v>
+      </c>
+      <c r="L18">
+        <v>626</v>
+      </c>
+      <c r="M18">
         <v>7942</v>
       </c>
-      <c r="H18">
-        <v>2762</v>
-      </c>
-      <c r="I18">
-        <v>2492</v>
-      </c>
-      <c r="J18">
-        <v>270</v>
-      </c>
-      <c r="K18">
-        <v>9.8000000000000007</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N18">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="O18">
+        <v>1.82</v>
+      </c>
+      <c r="P18">
+        <v>-1.1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19" s="2">
         <v>41061</v>
       </c>
       <c r="B19">
-        <v>475</v>
+        <v>307</v>
       </c>
       <c r="C19">
         <v>-8</v>
@@ -1128,30 +1348,45 @@
         <v>1865</v>
       </c>
       <c r="F19">
-        <v>1.4724999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="G19">
+        <v>1.5</v>
+      </c>
+      <c r="H19">
+        <v>1.64</v>
+      </c>
+      <c r="I19">
+        <v>1.7</v>
+      </c>
+      <c r="J19">
+        <v>1.4725</v>
+      </c>
+      <c r="K19">
+        <v>7723</v>
+      </c>
+      <c r="L19">
+        <v>646</v>
+      </c>
+      <c r="M19">
         <v>8369</v>
       </c>
-      <c r="H19">
-        <v>2762</v>
-      </c>
-      <c r="I19">
-        <v>2540</v>
-      </c>
-      <c r="J19">
-        <v>221</v>
-      </c>
-      <c r="K19">
+      <c r="N19">
         <v>8</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O19">
+        <v>1.76</v>
+      </c>
+      <c r="P19">
+        <v>-1.1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20" s="2">
         <v>41091</v>
       </c>
       <c r="B20">
-        <v>408</v>
+        <v>313</v>
       </c>
       <c r="C20">
         <v>-8.9</v>
@@ -1163,33 +1398,48 @@
         <v>1861</v>
       </c>
       <c r="F20">
+        <v>1.11</v>
+      </c>
+      <c r="G20">
+        <v>1.51</v>
+      </c>
+      <c r="H20">
+        <v>1.66</v>
+      </c>
+      <c r="I20">
+        <v>1.72</v>
+      </c>
+      <c r="J20">
         <v>1.5</v>
       </c>
-      <c r="G20">
+      <c r="K20">
+        <v>6457</v>
+      </c>
+      <c r="L20">
+        <v>645</v>
+      </c>
+      <c r="M20">
         <v>7102</v>
       </c>
-      <c r="H20">
-        <v>2761</v>
-      </c>
-      <c r="I20">
-        <v>2571</v>
-      </c>
-      <c r="J20">
-        <v>191</v>
-      </c>
-      <c r="K20">
+      <c r="N20">
         <v>6.9</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O20">
+        <v>1.55</v>
+      </c>
+      <c r="P20">
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21" s="2">
         <v>41122</v>
       </c>
       <c r="B21">
-        <v>485</v>
+        <v>360</v>
       </c>
       <c r="C21">
-        <v>-10.199999999999999</v>
+        <v>-10.2</v>
       </c>
       <c r="D21">
         <v>106.44</v>
@@ -1198,30 +1448,45 @@
         <v>1865</v>
       </c>
       <c r="F21">
+        <v>1.18</v>
+      </c>
+      <c r="G21">
         <v>1.54</v>
       </c>
-      <c r="G21">
+      <c r="H21">
+        <v>1.69</v>
+      </c>
+      <c r="I21">
+        <v>1.75</v>
+      </c>
+      <c r="J21">
+        <v>1.54</v>
+      </c>
+      <c r="K21">
+        <v>7545</v>
+      </c>
+      <c r="L21">
+        <v>905</v>
+      </c>
+      <c r="M21">
         <v>8450</v>
       </c>
-      <c r="H21">
-        <v>2703</v>
-      </c>
-      <c r="I21">
-        <v>2502</v>
-      </c>
-      <c r="J21">
-        <v>201</v>
-      </c>
-      <c r="K21">
+      <c r="N21">
         <v>7.4</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O21">
+        <v>1.54</v>
+      </c>
+      <c r="P21">
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22" s="2">
         <v>41153</v>
       </c>
       <c r="B22">
-        <v>765</v>
+        <v>599</v>
       </c>
       <c r="C22">
         <v>-8.4</v>
@@ -1233,33 +1498,48 @@
         <v>1872</v>
       </c>
       <c r="F22">
+        <v>1.17</v>
+      </c>
+      <c r="G22">
+        <v>1.58</v>
+      </c>
+      <c r="H22">
+        <v>1.74</v>
+      </c>
+      <c r="I22">
+        <v>1.8</v>
+      </c>
+      <c r="J22">
         <v>1.5725</v>
       </c>
-      <c r="G22">
+      <c r="K22">
+        <v>8002</v>
+      </c>
+      <c r="L22">
+        <v>825</v>
+      </c>
+      <c r="M22">
         <v>8827</v>
       </c>
-      <c r="H22">
-        <v>2601</v>
-      </c>
-      <c r="I22">
-        <v>2414</v>
-      </c>
-      <c r="J22">
-        <v>187</v>
-      </c>
-      <c r="K22">
+      <c r="N22">
         <v>7.2</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O22">
+        <v>1.82</v>
+      </c>
+      <c r="P22">
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23" s="2">
         <v>41183</v>
       </c>
       <c r="B23">
-        <v>604</v>
+        <v>481</v>
       </c>
       <c r="C23">
-        <v>-8.6999999999999993</v>
+        <v>-8.699999999999999</v>
       </c>
       <c r="D23">
         <v>107.02</v>
@@ -1268,30 +1548,45 @@
         <v>1875</v>
       </c>
       <c r="F23">
-        <v>1.5575000000000001</v>
+        <v>1.18</v>
       </c>
       <c r="G23">
+        <v>1.57</v>
+      </c>
+      <c r="H23">
+        <v>1.71</v>
+      </c>
+      <c r="I23">
+        <v>1.77</v>
+      </c>
+      <c r="J23">
+        <v>1.5575</v>
+      </c>
+      <c r="K23">
+        <v>8191</v>
+      </c>
+      <c r="L23">
+        <v>863</v>
+      </c>
+      <c r="M23">
         <v>9054</v>
       </c>
-      <c r="H23">
-        <v>2626</v>
-      </c>
-      <c r="I23">
-        <v>2443</v>
-      </c>
-      <c r="J23">
-        <v>182</v>
-      </c>
-      <c r="K23">
+      <c r="N23">
         <v>6.9</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O23">
+        <v>1.78</v>
+      </c>
+      <c r="P23">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
       <c r="A24" s="2">
         <v>41214</v>
       </c>
       <c r="B24">
-        <v>583</v>
+        <v>413</v>
       </c>
       <c r="C24">
         <v>-7.1</v>
@@ -1303,30 +1598,45 @@
         <v>1869</v>
       </c>
       <c r="F24">
+        <v>1.12</v>
+      </c>
+      <c r="G24">
+        <v>1.55</v>
+      </c>
+      <c r="H24">
+        <v>1.64</v>
+      </c>
+      <c r="I24">
+        <v>1.69</v>
+      </c>
+      <c r="J24">
         <v>1.5</v>
       </c>
-      <c r="G24">
+      <c r="K24">
+        <v>7714</v>
+      </c>
+      <c r="L24">
+        <v>805</v>
+      </c>
+      <c r="M24">
         <v>8519</v>
       </c>
-      <c r="H24">
-        <v>2634</v>
-      </c>
-      <c r="I24">
-        <v>2441</v>
-      </c>
-      <c r="J24">
-        <v>194</v>
-      </c>
-      <c r="K24">
+      <c r="N24">
         <v>7.4</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O24">
+        <v>1.67</v>
+      </c>
+      <c r="P24">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
       <c r="A25" s="2">
         <v>41244</v>
       </c>
       <c r="B25">
-        <v>519</v>
+        <v>192</v>
       </c>
       <c r="C25">
         <v>-7.4</v>
@@ -1338,30 +1648,45 @@
         <v>1871</v>
       </c>
       <c r="F25">
-        <v>1.4750000000000001</v>
+        <v>1.09</v>
       </c>
       <c r="G25">
+        <v>1.54</v>
+      </c>
+      <c r="H25">
+        <v>1.61</v>
+      </c>
+      <c r="I25">
+        <v>1.66</v>
+      </c>
+      <c r="J25">
+        <v>1.475</v>
+      </c>
+      <c r="K25">
+        <v>6415</v>
+      </c>
+      <c r="L25">
+        <v>734</v>
+      </c>
+      <c r="M25">
         <v>7149</v>
       </c>
-      <c r="H25">
-        <v>2562</v>
-      </c>
-      <c r="I25">
-        <v>2379</v>
-      </c>
-      <c r="J25">
-        <v>184</v>
-      </c>
-      <c r="K25">
+      <c r="N25">
         <v>7.2</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O25">
+        <v>1.59</v>
+      </c>
+      <c r="P25">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
       <c r="A26" s="2">
         <v>41275</v>
       </c>
       <c r="B26">
-        <v>648</v>
+        <v>511</v>
       </c>
       <c r="C26">
         <v>-6</v>
@@ -1373,30 +1698,45 @@
         <v>1870</v>
       </c>
       <c r="F26">
+        <v>1.12</v>
+      </c>
+      <c r="G26">
+        <v>1.54</v>
+      </c>
+      <c r="H26">
+        <v>1.62</v>
+      </c>
+      <c r="I26">
+        <v>1.68</v>
+      </c>
+      <c r="J26">
         <v>1.49</v>
       </c>
-      <c r="G26">
+      <c r="K26">
+        <v>10258</v>
+      </c>
+      <c r="L26">
+        <v>962</v>
+      </c>
+      <c r="M26">
         <v>11220</v>
       </c>
-      <c r="H26">
-        <v>2605</v>
-      </c>
-      <c r="I26">
-        <v>2373</v>
-      </c>
-      <c r="J26">
-        <v>233</v>
-      </c>
-      <c r="K26">
+      <c r="N26">
         <v>8.9</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O26">
+        <v>1.74</v>
+      </c>
+      <c r="P26">
+        <v>-0.9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
       <c r="A27" s="2">
         <v>41306</v>
       </c>
       <c r="B27">
-        <v>554</v>
+        <v>407</v>
       </c>
       <c r="C27">
         <v>-2.5</v>
@@ -1408,30 +1748,45 @@
         <v>1881</v>
       </c>
       <c r="F27">
+        <v>1.14</v>
+      </c>
+      <c r="G27">
+        <v>1.57</v>
+      </c>
+      <c r="H27">
+        <v>1.66</v>
+      </c>
+      <c r="I27">
+        <v>1.71</v>
+      </c>
+      <c r="J27">
         <v>1.52</v>
       </c>
-      <c r="G27">
+      <c r="K27">
+        <v>7891</v>
+      </c>
+      <c r="L27">
+        <v>766</v>
+      </c>
+      <c r="M27">
         <v>8657</v>
       </c>
-      <c r="H27">
-        <v>2621</v>
-      </c>
-      <c r="I27">
-        <v>2386</v>
-      </c>
-      <c r="J27">
-        <v>235</v>
-      </c>
-      <c r="K27">
+      <c r="N27">
         <v>9</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O27">
+        <v>1.81</v>
+      </c>
+      <c r="P27">
+        <v>-0.9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
       <c r="A28" s="2">
         <v>41334</v>
       </c>
       <c r="B28">
-        <v>727</v>
+        <v>524</v>
       </c>
       <c r="C28">
         <v>-3.7</v>
@@ -1443,30 +1798,45 @@
         <v>1889</v>
       </c>
       <c r="F28">
-        <v>1.5275000000000001</v>
+        <v>1.13</v>
       </c>
       <c r="G28">
+        <v>1.57</v>
+      </c>
+      <c r="H28">
+        <v>1.68</v>
+      </c>
+      <c r="I28">
+        <v>1.73</v>
+      </c>
+      <c r="J28">
+        <v>1.5275</v>
+      </c>
+      <c r="K28">
+        <v>9499</v>
+      </c>
+      <c r="L28">
+        <v>822</v>
+      </c>
+      <c r="M28">
         <v>10321</v>
       </c>
-      <c r="H28">
-        <v>2590</v>
-      </c>
-      <c r="I28">
-        <v>2353</v>
-      </c>
-      <c r="J28">
-        <v>237</v>
-      </c>
-      <c r="K28">
+      <c r="N28">
         <v>9.1</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O28">
+        <v>1.61</v>
+      </c>
+      <c r="P28">
+        <v>-0.9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
       <c r="A29" s="2">
         <v>41365</v>
       </c>
       <c r="B29">
-        <v>457</v>
+        <v>339</v>
       </c>
       <c r="C29">
         <v>-5.2</v>
@@ -1478,30 +1848,45 @@
         <v>1892</v>
       </c>
       <c r="F29">
-        <v>1.5075000000000001</v>
+        <v>1.09</v>
       </c>
       <c r="G29">
+        <v>1.55</v>
+      </c>
+      <c r="H29">
+        <v>1.67</v>
+      </c>
+      <c r="I29">
+        <v>1.72</v>
+      </c>
+      <c r="J29">
+        <v>1.5075</v>
+      </c>
+      <c r="K29">
+        <v>9865</v>
+      </c>
+      <c r="L29">
+        <v>872</v>
+      </c>
+      <c r="M29">
         <v>10737</v>
       </c>
-      <c r="H29">
-        <v>2683</v>
-      </c>
-      <c r="I29">
-        <v>2443</v>
-      </c>
-      <c r="J29">
-        <v>240</v>
-      </c>
-      <c r="K29">
+      <c r="N29">
         <v>9</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O29">
+        <v>1.51</v>
+      </c>
+      <c r="P29">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
       <c r="A30" s="2">
         <v>41395</v>
       </c>
       <c r="B30">
-        <v>609</v>
+        <v>426</v>
       </c>
       <c r="C30">
         <v>-5.8</v>
@@ -1513,30 +1898,45 @@
         <v>1892</v>
       </c>
       <c r="F30">
+        <v>1.08</v>
+      </c>
+      <c r="G30">
+        <v>1.49</v>
+      </c>
+      <c r="H30">
+        <v>1.62</v>
+      </c>
+      <c r="I30">
+        <v>1.68</v>
+      </c>
+      <c r="J30">
         <v>1.4675</v>
       </c>
-      <c r="G30">
+      <c r="K30">
+        <v>10234</v>
+      </c>
+      <c r="L30">
+        <v>957</v>
+      </c>
+      <c r="M30">
         <v>11191</v>
       </c>
-      <c r="H30">
-        <v>2751</v>
-      </c>
-      <c r="I30">
-        <v>2450</v>
-      </c>
-      <c r="J30">
-        <v>301</v>
-      </c>
-      <c r="K30">
+      <c r="N30">
         <v>10.9</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O30">
+        <v>1.6</v>
+      </c>
+      <c r="P30">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
       <c r="A31" s="2">
         <v>41426</v>
       </c>
       <c r="B31">
-        <v>464</v>
+        <v>320</v>
       </c>
       <c r="C31">
         <v>-4.7</v>
@@ -1548,30 +1948,45 @@
         <v>1891</v>
       </c>
       <c r="F31">
-        <v>1.4750000000000001</v>
+        <v>1.07</v>
       </c>
       <c r="G31">
+        <v>1.49</v>
+      </c>
+      <c r="H31">
+        <v>1.64</v>
+      </c>
+      <c r="I31">
+        <v>1.7</v>
+      </c>
+      <c r="J31">
+        <v>1.475</v>
+      </c>
+      <c r="K31">
+        <v>8810</v>
+      </c>
+      <c r="L31">
+        <v>965</v>
+      </c>
+      <c r="M31">
         <v>9775</v>
       </c>
-      <c r="H31">
-        <v>2753</v>
-      </c>
-      <c r="I31">
-        <v>2537</v>
-      </c>
-      <c r="J31">
-        <v>216</v>
-      </c>
-      <c r="K31">
+      <c r="N31">
         <v>7.8</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O31">
+        <v>1.88</v>
+      </c>
+      <c r="P31">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
       <c r="A32" s="2">
         <v>41456</v>
       </c>
       <c r="B32">
-        <v>437</v>
+        <v>345</v>
       </c>
       <c r="C32">
         <v>-6.1</v>
@@ -1583,30 +1998,45 @@
         <v>1891</v>
       </c>
       <c r="F32">
+        <v>1.12</v>
+      </c>
+      <c r="G32">
         <v>1.5</v>
       </c>
-      <c r="G32">
+      <c r="H32">
+        <v>1.66</v>
+      </c>
+      <c r="I32">
+        <v>1.72</v>
+      </c>
+      <c r="J32">
+        <v>1.5</v>
+      </c>
+      <c r="K32">
+        <v>8457</v>
+      </c>
+      <c r="L32">
+        <v>822</v>
+      </c>
+      <c r="M32">
         <v>9279</v>
       </c>
-      <c r="H32">
-        <v>2725</v>
-      </c>
-      <c r="I32">
-        <v>2540</v>
-      </c>
-      <c r="J32">
-        <v>185</v>
-      </c>
-      <c r="K32">
+      <c r="N32">
         <v>6.8</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O32">
+        <v>1.91</v>
+      </c>
+      <c r="P32">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
       <c r="A33" s="2">
         <v>41487</v>
       </c>
       <c r="B33">
-        <v>513</v>
+        <v>331</v>
       </c>
       <c r="C33">
         <v>-5.9</v>
@@ -1618,30 +2048,45 @@
         <v>1888</v>
       </c>
       <c r="F33">
-        <v>1.5049999999999999</v>
+        <v>1.11</v>
       </c>
       <c r="G33">
+        <v>1.51</v>
+      </c>
+      <c r="H33">
+        <v>1.67</v>
+      </c>
+      <c r="I33">
+        <v>1.73</v>
+      </c>
+      <c r="J33">
+        <v>1.505</v>
+      </c>
+      <c r="K33">
+        <v>7739</v>
+      </c>
+      <c r="L33">
+        <v>788</v>
+      </c>
+      <c r="M33">
         <v>8527</v>
       </c>
-      <c r="H33">
-        <v>2644</v>
-      </c>
-      <c r="I33">
-        <v>2453</v>
-      </c>
-      <c r="J33">
-        <v>191</v>
-      </c>
-      <c r="K33">
+      <c r="N33">
         <v>7.2</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O33">
+        <v>2.07</v>
+      </c>
+      <c r="P33">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16">
       <c r="A34" s="2">
         <v>41518</v>
       </c>
       <c r="B34">
-        <v>567</v>
+        <v>391</v>
       </c>
       <c r="C34">
         <v>-5.8</v>
@@ -1653,30 +2098,45 @@
         <v>1894</v>
       </c>
       <c r="F34">
-        <v>1.5149999999999999</v>
+        <v>1.14</v>
       </c>
       <c r="G34">
+        <v>1.52</v>
+      </c>
+      <c r="H34">
+        <v>1.67</v>
+      </c>
+      <c r="I34">
+        <v>1.73</v>
+      </c>
+      <c r="J34">
+        <v>1.515</v>
+      </c>
+      <c r="K34">
+        <v>8219</v>
+      </c>
+      <c r="L34">
+        <v>977</v>
+      </c>
+      <c r="M34">
         <v>9196</v>
       </c>
-      <c r="H34">
-        <v>2590</v>
-      </c>
-      <c r="I34">
-        <v>2395</v>
-      </c>
-      <c r="J34">
-        <v>195</v>
-      </c>
-      <c r="K34">
+      <c r="N34">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O34">
+        <v>2.19</v>
+      </c>
+      <c r="P34">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16">
       <c r="A35" s="2">
         <v>41548</v>
       </c>
       <c r="B35">
-        <v>656</v>
+        <v>405</v>
       </c>
       <c r="C35">
         <v>-6.1</v>
@@ -1688,30 +2148,45 @@
         <v>1897</v>
       </c>
       <c r="F35">
-        <v>1.4824999999999999</v>
+        <v>1.1</v>
       </c>
       <c r="G35">
+        <v>1.51</v>
+      </c>
+      <c r="H35">
+        <v>1.63</v>
+      </c>
+      <c r="I35">
+        <v>1.69</v>
+      </c>
+      <c r="J35">
+        <v>1.4825</v>
+      </c>
+      <c r="K35">
+        <v>9093</v>
+      </c>
+      <c r="L35">
+        <v>871</v>
+      </c>
+      <c r="M35">
         <v>9964</v>
       </c>
-      <c r="H35">
-        <v>2601</v>
-      </c>
-      <c r="I35">
-        <v>2410</v>
-      </c>
-      <c r="J35">
-        <v>192</v>
-      </c>
-      <c r="K35">
+      <c r="N35">
         <v>7.4</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O35">
+        <v>2.04</v>
+      </c>
+      <c r="P35">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16">
       <c r="A36" s="2">
         <v>41579</v>
       </c>
       <c r="B36">
-        <v>601</v>
+        <v>386</v>
       </c>
       <c r="C36">
         <v>-5.4</v>
@@ -1723,30 +2198,45 @@
         <v>1894</v>
       </c>
       <c r="F36">
+        <v>1.08</v>
+      </c>
+      <c r="G36">
+        <v>1.5</v>
+      </c>
+      <c r="H36">
+        <v>1.6</v>
+      </c>
+      <c r="I36">
+        <v>1.66</v>
+      </c>
+      <c r="J36">
         <v>1.46</v>
       </c>
-      <c r="G36">
+      <c r="K36">
+        <v>7463</v>
+      </c>
+      <c r="L36">
+        <v>786</v>
+      </c>
+      <c r="M36">
         <v>8249</v>
       </c>
-      <c r="H36">
-        <v>2619</v>
-      </c>
-      <c r="I36">
-        <v>2407</v>
-      </c>
-      <c r="J36">
-        <v>212</v>
-      </c>
-      <c r="K36">
+      <c r="N36">
         <v>8.1</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O36">
+        <v>1.94</v>
+      </c>
+      <c r="P36">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16">
       <c r="A37" s="2">
         <v>41609</v>
       </c>
       <c r="B37">
-        <v>479</v>
+        <v>358</v>
       </c>
       <c r="C37">
         <v>-5.2</v>
@@ -1758,30 +2248,45 @@
         <v>1901</v>
       </c>
       <c r="F37">
-        <v>1.4624999999999999</v>
+        <v>1.08</v>
       </c>
       <c r="G37">
+        <v>1.51</v>
+      </c>
+      <c r="H37">
+        <v>1.6</v>
+      </c>
+      <c r="I37">
+        <v>1.66</v>
+      </c>
+      <c r="J37">
+        <v>1.4625</v>
+      </c>
+      <c r="K37">
+        <v>5927</v>
+      </c>
+      <c r="L37">
+        <v>817</v>
+      </c>
+      <c r="M37">
         <v>6744</v>
       </c>
-      <c r="H37">
-        <v>2580</v>
-      </c>
-      <c r="I37">
-        <v>2376</v>
-      </c>
-      <c r="J37">
-        <v>205</v>
-      </c>
-      <c r="K37">
+      <c r="N37">
         <v>7.9</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O37">
+        <v>2.03</v>
+      </c>
+      <c r="P37">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16">
       <c r="A38" s="2">
         <v>41640</v>
       </c>
       <c r="B38">
-        <v>442</v>
+        <v>207</v>
       </c>
       <c r="C38">
         <v>-3</v>
@@ -1793,30 +2298,45 @@
         <v>1900</v>
       </c>
       <c r="F38">
+        <v>1.05</v>
+      </c>
+      <c r="G38">
+        <v>1.53</v>
+      </c>
+      <c r="H38">
+        <v>1.62</v>
+      </c>
+      <c r="I38">
+        <v>1.68</v>
+      </c>
+      <c r="J38">
         <v>1.47</v>
       </c>
-      <c r="G38">
+      <c r="K38">
+        <v>12697</v>
+      </c>
+      <c r="L38">
+        <v>1004</v>
+      </c>
+      <c r="M38">
         <v>13701</v>
       </c>
-      <c r="H38">
-        <v>2588</v>
-      </c>
-      <c r="I38">
-        <v>2364</v>
-      </c>
-      <c r="J38">
-        <v>224</v>
-      </c>
-      <c r="K38">
+      <c r="N38">
         <v>8.6</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O38">
+        <v>1.99</v>
+      </c>
+      <c r="P38">
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16">
       <c r="A39" s="2">
         <v>41671</v>
       </c>
       <c r="B39">
-        <v>652</v>
+        <v>436</v>
       </c>
       <c r="C39">
         <v>-3.7</v>
@@ -1828,33 +2348,48 @@
         <v>1905</v>
       </c>
       <c r="F39">
+        <v>1.05</v>
+      </c>
+      <c r="G39">
+        <v>1.53</v>
+      </c>
+      <c r="H39">
+        <v>1.62</v>
+      </c>
+      <c r="I39">
+        <v>1.68</v>
+      </c>
+      <c r="J39">
         <v>1.47</v>
       </c>
-      <c r="G39">
+      <c r="K39">
+        <v>8180</v>
+      </c>
+      <c r="L39">
+        <v>834</v>
+      </c>
+      <c r="M39">
         <v>9014</v>
       </c>
-      <c r="H39">
-        <v>2617</v>
-      </c>
-      <c r="I39">
-        <v>2374</v>
-      </c>
-      <c r="J39">
-        <v>243</v>
-      </c>
-      <c r="K39">
-        <v>9.3000000000000007</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N39">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="O39">
+        <v>1.92</v>
+      </c>
+      <c r="P39">
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16">
       <c r="A40" s="2">
         <v>41699</v>
       </c>
       <c r="B40">
-        <v>929</v>
+        <v>655</v>
       </c>
       <c r="C40">
-        <v>-4.4000000000000004</v>
+        <v>-4.4</v>
       </c>
       <c r="D40">
         <v>108.98</v>
@@ -1863,30 +2398,45 @@
         <v>1909</v>
       </c>
       <c r="F40">
-        <v>1.4524999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="G40">
+        <v>1.51</v>
+      </c>
+      <c r="H40">
+        <v>1.61</v>
+      </c>
+      <c r="I40">
+        <v>1.67</v>
+      </c>
+      <c r="J40">
+        <v>1.4525</v>
+      </c>
+      <c r="K40">
+        <v>9626</v>
+      </c>
+      <c r="L40">
+        <v>864</v>
+      </c>
+      <c r="M40">
         <v>10490</v>
       </c>
-      <c r="H40">
-        <v>2610</v>
-      </c>
-      <c r="I40">
-        <v>2356</v>
-      </c>
-      <c r="J40">
-        <v>255</v>
-      </c>
-      <c r="K40">
-        <v>9.8000000000000007</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N40">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="O40">
+        <v>1.9</v>
+      </c>
+      <c r="P40">
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16">
       <c r="A41" s="2">
         <v>41730</v>
       </c>
       <c r="B41">
-        <v>525</v>
+        <v>376</v>
       </c>
       <c r="C41">
         <v>-7.4</v>
@@ -1898,30 +2448,45 @@
         <v>1912</v>
       </c>
       <c r="F41">
+        <v>1.03</v>
+      </c>
+      <c r="G41">
+        <v>1.51</v>
+      </c>
+      <c r="H41">
+        <v>1.62</v>
+      </c>
+      <c r="I41">
+        <v>1.68</v>
+      </c>
+      <c r="J41">
         <v>1.46</v>
       </c>
-      <c r="G41">
+      <c r="K41">
+        <v>9317</v>
+      </c>
+      <c r="L41">
+        <v>885</v>
+      </c>
+      <c r="M41">
         <v>10202</v>
       </c>
-      <c r="H41">
-        <v>2659</v>
-      </c>
-      <c r="I41">
-        <v>2418</v>
-      </c>
-      <c r="J41">
-        <v>241</v>
-      </c>
-      <c r="K41">
+      <c r="N41">
         <v>9.1</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O41">
+        <v>1.84</v>
+      </c>
+      <c r="P41">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16">
       <c r="A42" s="2">
         <v>41760</v>
       </c>
       <c r="B42">
-        <v>604</v>
+        <v>413</v>
       </c>
       <c r="C42">
         <v>-5.7</v>
@@ -1933,33 +2498,48 @@
         <v>1907</v>
       </c>
       <c r="F42">
+        <v>1.04</v>
+      </c>
+      <c r="G42">
+        <v>1.49</v>
+      </c>
+      <c r="H42">
+        <v>1.62</v>
+      </c>
+      <c r="I42">
+        <v>1.68</v>
+      </c>
+      <c r="J42">
         <v>1.4575</v>
       </c>
-      <c r="G42">
+      <c r="K42">
+        <v>10114</v>
+      </c>
+      <c r="L42">
+        <v>881</v>
+      </c>
+      <c r="M42">
         <v>10995</v>
       </c>
-      <c r="H42">
-        <v>2723</v>
-      </c>
-      <c r="I42">
-        <v>2426</v>
-      </c>
-      <c r="J42">
-        <v>297</v>
-      </c>
-      <c r="K42">
+      <c r="N42">
         <v>10.9</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O42">
+        <v>1.69</v>
+      </c>
+      <c r="P42">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16">
       <c r="A43" s="2">
         <v>41791</v>
       </c>
       <c r="B43">
-        <v>588</v>
+        <v>353</v>
       </c>
       <c r="C43">
-        <v>-4.0999999999999996</v>
+        <v>-4.1</v>
       </c>
       <c r="D43">
         <v>108.95</v>
@@ -1968,30 +2548,45 @@
         <v>1909</v>
       </c>
       <c r="F43">
+        <v>1.04</v>
+      </c>
+      <c r="G43">
+        <v>1.49</v>
+      </c>
+      <c r="H43">
+        <v>1.64</v>
+      </c>
+      <c r="I43">
+        <v>1.7</v>
+      </c>
+      <c r="J43">
         <v>1.4675</v>
       </c>
-      <c r="G43">
+      <c r="K43">
+        <v>9209</v>
+      </c>
+      <c r="L43">
+        <v>934</v>
+      </c>
+      <c r="M43">
         <v>10143</v>
       </c>
-      <c r="H43">
-        <v>2783</v>
-      </c>
-      <c r="I43">
-        <v>2529</v>
-      </c>
-      <c r="J43">
-        <v>254</v>
-      </c>
-      <c r="K43">
+      <c r="N43">
         <v>9.1</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O43">
+        <v>1.57</v>
+      </c>
+      <c r="P43">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16">
       <c r="A44" s="2">
         <v>41821</v>
       </c>
       <c r="B44">
-        <v>510</v>
+        <v>325</v>
       </c>
       <c r="C44">
         <v>-3.2</v>
@@ -2003,30 +2598,45 @@
         <v>1907</v>
       </c>
       <c r="F44">
-        <v>1.4824999999999999</v>
+        <v>1.04</v>
       </c>
       <c r="G44">
+        <v>1.5</v>
+      </c>
+      <c r="H44">
+        <v>1.66</v>
+      </c>
+      <c r="I44">
+        <v>1.73</v>
+      </c>
+      <c r="J44">
+        <v>1.4825</v>
+      </c>
+      <c r="K44">
+        <v>8017</v>
+      </c>
+      <c r="L44">
+        <v>716</v>
+      </c>
+      <c r="M44">
         <v>8733</v>
       </c>
-      <c r="H44">
-        <v>2721</v>
-      </c>
-      <c r="I44">
-        <v>2530</v>
-      </c>
-      <c r="J44">
-        <v>191</v>
-      </c>
-      <c r="K44">
+      <c r="N44">
         <v>7</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O44">
+        <v>1.36</v>
+      </c>
+      <c r="P44">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16">
       <c r="A45" s="2">
         <v>41852</v>
       </c>
       <c r="B45">
-        <v>587</v>
+        <v>315</v>
       </c>
       <c r="C45">
         <v>-8.9</v>
@@ -2038,30 +2648,45 @@
         <v>1909</v>
       </c>
       <c r="F45">
+        <v>1.05</v>
+      </c>
+      <c r="G45">
+        <v>1.48</v>
+      </c>
+      <c r="H45">
+        <v>1.64</v>
+      </c>
+      <c r="I45">
+        <v>1.71</v>
+      </c>
+      <c r="J45">
         <v>1.47</v>
       </c>
-      <c r="G45">
+      <c r="K45">
+        <v>7525</v>
+      </c>
+      <c r="L45">
+        <v>898</v>
+      </c>
+      <c r="M45">
         <v>8423</v>
       </c>
-      <c r="H45">
-        <v>2640</v>
-      </c>
-      <c r="I45">
-        <v>2440</v>
-      </c>
-      <c r="J45">
-        <v>199</v>
-      </c>
-      <c r="K45">
+      <c r="N45">
         <v>7.6</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O45">
+        <v>1.18</v>
+      </c>
+      <c r="P45">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16">
       <c r="A46" s="2">
         <v>41883</v>
       </c>
       <c r="B46">
-        <v>611</v>
+        <v>407</v>
       </c>
       <c r="C46">
         <v>-10.7</v>
@@ -2073,30 +2698,45 @@
         <v>1920</v>
       </c>
       <c r="F46">
-        <v>1.4624999999999999</v>
+        <v>1.04</v>
       </c>
       <c r="G46">
+        <v>1.47</v>
+      </c>
+      <c r="H46">
+        <v>1.64</v>
+      </c>
+      <c r="I46">
+        <v>1.7</v>
+      </c>
+      <c r="J46">
+        <v>1.4625</v>
+      </c>
+      <c r="K46">
+        <v>8402</v>
+      </c>
+      <c r="L46">
+        <v>932</v>
+      </c>
+      <c r="M46">
         <v>9334</v>
       </c>
-      <c r="H46">
-        <v>2626</v>
-      </c>
-      <c r="I46">
-        <v>2408</v>
-      </c>
-      <c r="J46">
-        <v>218</v>
-      </c>
-      <c r="K46">
-        <v>8.3000000000000007</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N46">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="O46">
+        <v>1.13</v>
+      </c>
+      <c r="P46">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16">
       <c r="A47" s="2">
         <v>41913</v>
       </c>
       <c r="B47">
-        <v>655</v>
+        <v>404</v>
       </c>
       <c r="C47">
         <v>-8.4</v>
@@ -2108,33 +2748,48 @@
         <v>1916</v>
       </c>
       <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47">
+        <v>1.44</v>
+      </c>
+      <c r="H47">
+        <v>1.6</v>
+      </c>
+      <c r="I47">
+        <v>1.67</v>
+      </c>
+      <c r="J47">
         <v>1.4275</v>
       </c>
-      <c r="G47">
+      <c r="K47">
+        <v>8837</v>
+      </c>
+      <c r="L47">
+        <v>974</v>
+      </c>
+      <c r="M47">
         <v>9811</v>
       </c>
-      <c r="H47">
-        <v>2612</v>
-      </c>
-      <c r="I47">
-        <v>2393</v>
-      </c>
-      <c r="J47">
-        <v>219</v>
-      </c>
-      <c r="K47">
+      <c r="N47">
         <v>8.4</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O47">
+        <v>1.01</v>
+      </c>
+      <c r="P47">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16">
       <c r="A48" s="2">
         <v>41944</v>
       </c>
       <c r="B48">
-        <v>579</v>
+        <v>344</v>
       </c>
       <c r="C48">
-        <v>-8.1999999999999993</v>
+        <v>-8.199999999999999</v>
       </c>
       <c r="D48">
         <v>109.18</v>
@@ -2143,30 +2798,45 @@
         <v>1913</v>
       </c>
       <c r="F48">
-        <v>1.3925000000000001</v>
+        <v>0.99</v>
       </c>
       <c r="G48">
+        <v>1.44</v>
+      </c>
+      <c r="H48">
+        <v>1.54</v>
+      </c>
+      <c r="I48">
+        <v>1.6</v>
+      </c>
+      <c r="J48">
+        <v>1.3925</v>
+      </c>
+      <c r="K48">
+        <v>7219</v>
+      </c>
+      <c r="L48">
+        <v>818</v>
+      </c>
+      <c r="M48">
         <v>8037</v>
       </c>
-      <c r="H48">
-        <v>2614</v>
-      </c>
-      <c r="I48">
-        <v>2402</v>
-      </c>
-      <c r="J48">
-        <v>211</v>
-      </c>
-      <c r="K48">
+      <c r="N48">
         <v>8.1</v>
       </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O48">
+        <v>0.9</v>
+      </c>
+      <c r="P48">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16">
       <c r="A49" s="2">
         <v>41974</v>
       </c>
       <c r="B49">
-        <v>645</v>
+        <v>219</v>
       </c>
       <c r="C49">
         <v>-7.7</v>
@@ -2178,30 +2848,45 @@
         <v>1910</v>
       </c>
       <c r="F49">
+        <v>0.86</v>
+      </c>
+      <c r="G49">
+        <v>1.37</v>
+      </c>
+      <c r="H49">
+        <v>1.46</v>
+      </c>
+      <c r="I49">
+        <v>1.52</v>
+      </c>
+      <c r="J49">
         <v>1.3025</v>
       </c>
-      <c r="G49">
+      <c r="K49">
+        <v>7092</v>
+      </c>
+      <c r="L49">
+        <v>885</v>
+      </c>
+      <c r="M49">
         <v>7977</v>
       </c>
-      <c r="H49">
-        <v>2609</v>
-      </c>
-      <c r="I49">
-        <v>2379</v>
-      </c>
-      <c r="J49">
-        <v>230</v>
-      </c>
-      <c r="K49">
-        <v>8.8000000000000007</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N49">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="O49">
+        <v>0.89</v>
+      </c>
+      <c r="P49">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16">
       <c r="A50" s="2">
         <v>42005</v>
       </c>
       <c r="B50">
-        <v>712</v>
+        <v>440</v>
       </c>
       <c r="C50">
         <v>-5.9</v>
@@ -2213,30 +2898,45 @@
         <v>1897</v>
       </c>
       <c r="F50">
-        <v>1.2224999999999999</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="G50">
+        <v>1.28</v>
+      </c>
+      <c r="H50">
+        <v>1.37</v>
+      </c>
+      <c r="I50">
+        <v>1.43</v>
+      </c>
+      <c r="J50">
+        <v>1.2225</v>
+      </c>
+      <c r="K50">
+        <v>10268</v>
+      </c>
+      <c r="L50">
+        <v>959</v>
+      </c>
+      <c r="M50">
         <v>11227</v>
       </c>
-      <c r="H50">
-        <v>2595</v>
-      </c>
-      <c r="I50">
-        <v>2363</v>
-      </c>
-      <c r="J50">
-        <v>232</v>
-      </c>
-      <c r="K50">
+      <c r="N50">
         <v>9</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O50">
+        <v>0.62</v>
+      </c>
+      <c r="P50">
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16">
       <c r="A51" s="2">
         <v>42036</v>
       </c>
       <c r="B51">
-        <v>694</v>
+        <v>476</v>
       </c>
       <c r="C51">
         <v>-3.2</v>
@@ -2248,30 +2948,45 @@
         <v>1902</v>
       </c>
       <c r="F51">
+        <v>0.93</v>
+      </c>
+      <c r="G51">
+        <v>1.3</v>
+      </c>
+      <c r="H51">
+        <v>1.39</v>
+      </c>
+      <c r="I51">
+        <v>1.46</v>
+      </c>
+      <c r="J51">
         <v>1.27</v>
       </c>
-      <c r="G51">
+      <c r="K51">
+        <v>7990</v>
+      </c>
+      <c r="L51">
+        <v>914</v>
+      </c>
+      <c r="M51">
         <v>8904</v>
       </c>
-      <c r="H51">
-        <v>2627</v>
-      </c>
-      <c r="I51">
-        <v>2357</v>
-      </c>
-      <c r="J51">
-        <v>270</v>
-      </c>
-      <c r="K51">
+      <c r="N51">
         <v>10.3</v>
       </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O51">
+        <v>0.48</v>
+      </c>
+      <c r="P51">
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16">
       <c r="A52" s="2">
         <v>42064</v>
       </c>
       <c r="B52">
-        <v>1112</v>
+        <v>722</v>
       </c>
       <c r="C52">
         <v>-3.4</v>
@@ -2283,30 +2998,45 @@
         <v>1908</v>
       </c>
       <c r="F52">
-        <v>1.3174999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="G52">
+        <v>1.36</v>
+      </c>
+      <c r="H52">
+        <v>1.46</v>
+      </c>
+      <c r="I52">
+        <v>1.53</v>
+      </c>
+      <c r="J52">
+        <v>1.3175</v>
+      </c>
+      <c r="K52">
+        <v>11098</v>
+      </c>
+      <c r="L52">
+        <v>1072</v>
+      </c>
+      <c r="M52">
         <v>12170</v>
       </c>
-      <c r="H52">
-        <v>2626</v>
-      </c>
-      <c r="I52">
-        <v>2352</v>
-      </c>
-      <c r="J52">
-        <v>274</v>
-      </c>
-      <c r="K52">
+      <c r="N52">
         <v>10.4</v>
       </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O52">
+        <v>0.39</v>
+      </c>
+      <c r="P52">
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16">
       <c r="A53" s="2">
         <v>42095</v>
       </c>
       <c r="B53">
-        <v>387</v>
+        <v>248</v>
       </c>
       <c r="C53">
         <v>-2.1</v>
@@ -2318,30 +3048,45 @@
         <v>1908</v>
       </c>
       <c r="F53">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="G53">
+        <v>1.36</v>
+      </c>
+      <c r="H53">
+        <v>1.5</v>
+      </c>
+      <c r="I53">
+        <v>1.57</v>
+      </c>
+      <c r="J53">
         <v>1.3425</v>
       </c>
-      <c r="G53">
+      <c r="K53">
+        <v>9637</v>
+      </c>
+      <c r="L53">
+        <v>961</v>
+      </c>
+      <c r="M53">
         <v>10598</v>
       </c>
-      <c r="H53">
-        <v>2679</v>
-      </c>
-      <c r="I53">
-        <v>2404</v>
-      </c>
-      <c r="J53">
-        <v>276</v>
-      </c>
-      <c r="K53">
+      <c r="N53">
         <v>10.3</v>
       </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O53">
+        <v>0.27</v>
+      </c>
+      <c r="P53">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16">
       <c r="A54" s="2">
         <v>42125</v>
       </c>
       <c r="B54">
-        <v>561</v>
+        <v>356</v>
       </c>
       <c r="C54">
         <v>-1.2</v>
@@ -2353,30 +3098,45 @@
         <v>1907</v>
       </c>
       <c r="F54">
-        <v>1.3725000000000001</v>
+        <v>0.96</v>
       </c>
       <c r="G54">
+        <v>1.36</v>
+      </c>
+      <c r="H54">
+        <v>1.55</v>
+      </c>
+      <c r="I54">
+        <v>1.62</v>
+      </c>
+      <c r="J54">
+        <v>1.3725</v>
+      </c>
+      <c r="K54">
+        <v>9117</v>
+      </c>
+      <c r="L54">
+        <v>928</v>
+      </c>
+      <c r="M54">
         <v>10045</v>
       </c>
-      <c r="H54">
-        <v>2724</v>
-      </c>
-      <c r="I54">
-        <v>2404</v>
-      </c>
-      <c r="J54">
-        <v>320</v>
-      </c>
-      <c r="K54">
+      <c r="N54">
         <v>11.7</v>
       </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O54">
+        <v>0.71</v>
+      </c>
+      <c r="P54">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16">
       <c r="A55" s="2">
         <v>42156</v>
       </c>
       <c r="B55">
-        <v>657</v>
+        <v>464</v>
       </c>
       <c r="C55">
         <v>-4</v>
@@ -2388,30 +3148,45 @@
         <v>1907</v>
       </c>
       <c r="F55">
+        <v>0.9</v>
+      </c>
+      <c r="G55">
         <v>1.37</v>
       </c>
-      <c r="G55">
+      <c r="H55">
+        <v>1.57</v>
+      </c>
+      <c r="I55">
+        <v>1.64</v>
+      </c>
+      <c r="J55">
+        <v>1.37</v>
+      </c>
+      <c r="K55">
+        <v>8980</v>
+      </c>
+      <c r="L55">
+        <v>997</v>
+      </c>
+      <c r="M55">
         <v>9977</v>
       </c>
-      <c r="H55">
-        <v>2760</v>
-      </c>
-      <c r="I55">
-        <v>2480</v>
-      </c>
-      <c r="J55">
-        <v>280</v>
-      </c>
-      <c r="K55">
-        <v>10.199999999999999</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N55">
+        <v>10.2</v>
+      </c>
+      <c r="O55">
+        <v>1.01</v>
+      </c>
+      <c r="P55">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16">
       <c r="A56" s="2">
         <v>42186</v>
       </c>
       <c r="B56">
-        <v>578</v>
+        <v>432</v>
       </c>
       <c r="C56">
         <v>-3.4</v>
@@ -2423,30 +3198,45 @@
         <v>1902</v>
       </c>
       <c r="F56">
-        <v>1.3474999999999999</v>
+        <v>0.84</v>
       </c>
       <c r="G56">
+        <v>1.35</v>
+      </c>
+      <c r="H56">
+        <v>1.56</v>
+      </c>
+      <c r="I56">
+        <v>1.64</v>
+      </c>
+      <c r="J56">
+        <v>1.3475</v>
+      </c>
+      <c r="K56">
+        <v>8723</v>
+      </c>
+      <c r="L56">
+        <v>744</v>
+      </c>
+      <c r="M56">
         <v>9467</v>
       </c>
-      <c r="H56">
-        <v>2704</v>
-      </c>
-      <c r="I56">
-        <v>2477</v>
-      </c>
-      <c r="J56">
-        <v>227</v>
-      </c>
-      <c r="K56">
+      <c r="N56">
         <v>8.4</v>
       </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O56">
+        <v>0.95</v>
+      </c>
+      <c r="P56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16">
       <c r="A57" s="2">
         <v>42217</v>
       </c>
       <c r="B57">
-        <v>551</v>
+        <v>358</v>
       </c>
       <c r="C57">
         <v>-5.9</v>
@@ -2458,33 +3248,48 @@
         <v>1906</v>
       </c>
       <c r="F57">
+        <v>0.8</v>
+      </c>
+      <c r="G57">
+        <v>1.31</v>
+      </c>
+      <c r="H57">
+        <v>1.53</v>
+      </c>
+      <c r="I57">
+        <v>1.61</v>
+      </c>
+      <c r="J57">
         <v>1.3125</v>
       </c>
-      <c r="G57">
+      <c r="K57">
+        <v>8402</v>
+      </c>
+      <c r="L57">
+        <v>954</v>
+      </c>
+      <c r="M57">
         <v>9356</v>
       </c>
-      <c r="H57">
-        <v>2652</v>
-      </c>
-      <c r="I57">
-        <v>2429</v>
-      </c>
-      <c r="J57">
-        <v>223</v>
-      </c>
-      <c r="K57">
+      <c r="N57">
         <v>8.4</v>
       </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O57">
+        <v>0.82</v>
+      </c>
+      <c r="P57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16">
       <c r="A58" s="2">
         <v>42248</v>
       </c>
       <c r="B58">
-        <v>755</v>
+        <v>563</v>
       </c>
       <c r="C58">
-        <v>-8.3000000000000007</v>
+        <v>-8.300000000000001</v>
       </c>
       <c r="D58">
         <v>108.93</v>
@@ -2493,33 +3298,48 @@
         <v>1908</v>
       </c>
       <c r="F58">
-        <v>1.2524999999999999</v>
+        <v>0.79</v>
       </c>
       <c r="G58">
+        <v>1.25</v>
+      </c>
+      <c r="H58">
+        <v>1.45</v>
+      </c>
+      <c r="I58">
+        <v>1.52</v>
+      </c>
+      <c r="J58">
+        <v>1.2525</v>
+      </c>
+      <c r="K58">
+        <v>8515</v>
+      </c>
+      <c r="L58">
+        <v>957</v>
+      </c>
+      <c r="M58">
         <v>9472</v>
       </c>
-      <c r="H58">
-        <v>2635</v>
-      </c>
-      <c r="I58">
-        <v>2411</v>
-      </c>
-      <c r="J58">
-        <v>224</v>
-      </c>
-      <c r="K58">
+      <c r="N58">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O58">
+        <v>0.95</v>
+      </c>
+      <c r="P58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16">
       <c r="A59" s="2">
         <v>42278</v>
       </c>
       <c r="B59">
-        <v>700</v>
+        <v>550</v>
       </c>
       <c r="C59">
-        <v>-9.1999999999999993</v>
+        <v>-9.199999999999999</v>
       </c>
       <c r="D59">
         <v>109.1</v>
@@ -2528,30 +3348,45 @@
         <v>1911</v>
       </c>
       <c r="F59">
+        <v>0.78</v>
+      </c>
+      <c r="G59">
+        <v>1.24</v>
+      </c>
+      <c r="H59">
+        <v>1.41</v>
+      </c>
+      <c r="I59">
+        <v>1.49</v>
+      </c>
+      <c r="J59">
         <v>1.23</v>
       </c>
-      <c r="G59">
+      <c r="K59">
+        <v>9167</v>
+      </c>
+      <c r="L59">
+        <v>960</v>
+      </c>
+      <c r="M59">
         <v>10127</v>
       </c>
-      <c r="H59">
-        <v>2646</v>
-      </c>
-      <c r="I59">
-        <v>2414</v>
-      </c>
-      <c r="J59">
-        <v>232</v>
-      </c>
-      <c r="K59">
-        <v>8.8000000000000007</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N59">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="O59">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="P59">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16">
       <c r="A60" s="2">
         <v>42309</v>
       </c>
       <c r="B60">
-        <v>483</v>
+        <v>358</v>
       </c>
       <c r="C60">
         <v>-5.8</v>
@@ -2563,30 +3398,45 @@
         <v>1908</v>
       </c>
       <c r="F60">
+        <v>0.78</v>
+      </c>
+      <c r="G60">
+        <v>1.26</v>
+      </c>
+      <c r="H60">
+        <v>1.42</v>
+      </c>
+      <c r="I60">
+        <v>1.49</v>
+      </c>
+      <c r="J60">
         <v>1.2375</v>
       </c>
-      <c r="G60">
+      <c r="K60">
+        <v>8998</v>
+      </c>
+      <c r="L60">
+        <v>963</v>
+      </c>
+      <c r="M60">
         <v>9961</v>
       </c>
-      <c r="H60">
-        <v>2584</v>
-      </c>
-      <c r="I60">
-        <v>2371</v>
-      </c>
-      <c r="J60">
-        <v>214</v>
-      </c>
-      <c r="K60">
-        <v>8.3000000000000007</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N60">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="O60">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="P60">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16">
       <c r="A61" s="2">
         <v>42339</v>
       </c>
       <c r="B61">
-        <v>515</v>
+        <v>320</v>
       </c>
       <c r="C61">
         <v>-8.1</v>
@@ -2598,30 +3448,45 @@
         <v>1906</v>
       </c>
       <c r="F61">
-        <v>1.1825000000000001</v>
+        <v>0.66</v>
       </c>
       <c r="G61">
+        <v>1.22</v>
+      </c>
+      <c r="H61">
+        <v>1.39</v>
+      </c>
+      <c r="I61">
+        <v>1.46</v>
+      </c>
+      <c r="J61">
+        <v>1.1825</v>
+      </c>
+      <c r="K61">
+        <v>7925</v>
+      </c>
+      <c r="L61">
+        <v>1022</v>
+      </c>
+      <c r="M61">
         <v>8947</v>
       </c>
-      <c r="H61">
-        <v>2591</v>
-      </c>
-      <c r="I61">
-        <v>2353</v>
-      </c>
-      <c r="J61">
-        <v>238</v>
-      </c>
-      <c r="K61">
-        <v>9.1999999999999993</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N61">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="O61">
+        <v>0.86</v>
+      </c>
+      <c r="P61">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16">
       <c r="A62" s="2">
         <v>42370</v>
       </c>
       <c r="B62">
-        <v>691</v>
+        <v>487</v>
       </c>
       <c r="C62">
         <v>-3.4</v>
@@ -2633,30 +3498,45 @@
         <v>1898</v>
       </c>
       <c r="F62">
+        <v>0.65</v>
+      </c>
+      <c r="G62">
+        <v>1.17</v>
+      </c>
+      <c r="H62">
+        <v>1.36</v>
+      </c>
+      <c r="I62">
+        <v>1.44</v>
+      </c>
+      <c r="J62">
         <v>1.155</v>
       </c>
-      <c r="G62">
+      <c r="K62">
+        <v>11794</v>
+      </c>
+      <c r="L62">
+        <v>1149</v>
+      </c>
+      <c r="M62">
         <v>12943</v>
       </c>
-      <c r="H62">
-        <v>2598</v>
-      </c>
-      <c r="I62">
-        <v>2353</v>
-      </c>
-      <c r="J62">
-        <v>245</v>
-      </c>
-      <c r="K62">
+      <c r="N62">
         <v>9.4</v>
       </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O62">
+        <v>0.78</v>
+      </c>
+      <c r="P62">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16">
       <c r="A63" s="2">
         <v>42401</v>
       </c>
       <c r="B63">
-        <v>741</v>
+        <v>455</v>
       </c>
       <c r="C63">
         <v>-5</v>
@@ -2668,30 +3548,45 @@
         <v>1900</v>
       </c>
       <c r="F63">
-        <v>1.1225000000000001</v>
+        <v>0.64</v>
       </c>
       <c r="G63">
+        <v>1.13</v>
+      </c>
+      <c r="H63">
+        <v>1.32</v>
+      </c>
+      <c r="I63">
+        <v>1.4</v>
+      </c>
+      <c r="J63">
+        <v>1.1225</v>
+      </c>
+      <c r="K63">
+        <v>9666</v>
+      </c>
+      <c r="L63">
+        <v>986</v>
+      </c>
+      <c r="M63">
         <v>10652</v>
       </c>
-      <c r="H63">
-        <v>2580</v>
-      </c>
-      <c r="I63">
-        <v>2330</v>
-      </c>
-      <c r="J63">
-        <v>250</v>
-      </c>
-      <c r="K63">
-        <v>9.6999999999999993</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N63">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="O63">
+        <v>0.53</v>
+      </c>
+      <c r="P63">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16">
       <c r="A64" s="2">
         <v>42430</v>
       </c>
       <c r="B64">
-        <v>1090</v>
+        <v>632</v>
       </c>
       <c r="C64">
         <v>-5.5</v>
@@ -2703,30 +3598,45 @@
         <v>1907</v>
       </c>
       <c r="F64">
+        <v>0.73</v>
+      </c>
+      <c r="G64">
+        <v>1.14</v>
+      </c>
+      <c r="H64">
+        <v>1.32</v>
+      </c>
+      <c r="I64">
+        <v>1.4</v>
+      </c>
+      <c r="J64">
         <v>1.1475</v>
       </c>
-      <c r="G64">
+      <c r="K64">
+        <v>11654</v>
+      </c>
+      <c r="L64">
+        <v>1098</v>
+      </c>
+      <c r="M64">
         <v>12752</v>
       </c>
-      <c r="H64">
-        <v>2666</v>
-      </c>
-      <c r="I64">
-        <v>2396</v>
-      </c>
-      <c r="J64">
-        <v>271</v>
-      </c>
-      <c r="K64">
+      <c r="N64">
         <v>10.1</v>
       </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O64">
+        <v>0.53</v>
+      </c>
+      <c r="P64">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16">
       <c r="A65" s="2">
         <v>42461</v>
       </c>
       <c r="B65">
-        <v>518</v>
+        <v>391</v>
       </c>
       <c r="C65">
         <v>-3.6</v>
@@ -2738,30 +3648,45 @@
         <v>1913</v>
       </c>
       <c r="F65">
+        <v>0.73</v>
+      </c>
+      <c r="G65">
+        <v>1.15</v>
+      </c>
+      <c r="H65">
+        <v>1.35</v>
+      </c>
+      <c r="I65">
+        <v>1.43</v>
+      </c>
+      <c r="J65">
         <v>1.165</v>
       </c>
-      <c r="G65">
+      <c r="K65">
+        <v>11088</v>
+      </c>
+      <c r="L65">
+        <v>1189</v>
+      </c>
+      <c r="M65">
         <v>12277</v>
       </c>
-      <c r="H65">
-        <v>2653</v>
-      </c>
-      <c r="I65">
-        <v>2394</v>
-      </c>
-      <c r="J65">
-        <v>258</v>
-      </c>
-      <c r="K65">
-        <v>9.6999999999999993</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N65">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="O65">
+        <v>0.46</v>
+      </c>
+      <c r="P65">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16">
       <c r="A66" s="2">
         <v>42491</v>
       </c>
       <c r="B66">
-        <v>618</v>
+        <v>407</v>
       </c>
       <c r="C66">
         <v>-3.1</v>
@@ -2773,30 +3698,45 @@
         <v>1912</v>
       </c>
       <c r="F66">
-        <v>1.2050000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="G66">
+        <v>1.18</v>
+      </c>
+      <c r="H66">
+        <v>1.4</v>
+      </c>
+      <c r="I66">
+        <v>1.48</v>
+      </c>
+      <c r="J66">
+        <v>1.205</v>
+      </c>
+      <c r="K66">
+        <v>10523</v>
+      </c>
+      <c r="L66">
+        <v>1071</v>
+      </c>
+      <c r="M66">
         <v>11594</v>
       </c>
-      <c r="H66">
-        <v>2702</v>
-      </c>
-      <c r="I66">
-        <v>2412</v>
-      </c>
-      <c r="J66">
-        <v>291</v>
-      </c>
-      <c r="K66">
+      <c r="N66">
         <v>10.8</v>
       </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O66">
+        <v>0.45</v>
+      </c>
+      <c r="P66">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16">
       <c r="A67" s="2">
         <v>42522</v>
       </c>
       <c r="B67">
-        <v>715</v>
+        <v>503</v>
       </c>
       <c r="C67">
         <v>0.1</v>
@@ -2808,30 +3748,45 @@
         <v>1913</v>
       </c>
       <c r="F67">
+        <v>0.82</v>
+      </c>
+      <c r="G67">
+        <v>1.23</v>
+      </c>
+      <c r="H67">
+        <v>1.44</v>
+      </c>
+      <c r="I67">
+        <v>1.51</v>
+      </c>
+      <c r="J67">
         <v>1.25</v>
       </c>
-      <c r="G67">
+      <c r="K67">
+        <v>10753</v>
+      </c>
+      <c r="L67">
+        <v>1195</v>
+      </c>
+      <c r="M67">
         <v>11948</v>
       </c>
-      <c r="H67">
-        <v>2791</v>
-      </c>
-      <c r="I67">
-        <v>2530</v>
-      </c>
-      <c r="J67">
-        <v>261</v>
-      </c>
-      <c r="K67">
+      <c r="N67">
         <v>9.4</v>
       </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O67">
+        <v>0.33</v>
+      </c>
+      <c r="P67">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16">
       <c r="A68" s="2">
         <v>42552</v>
       </c>
       <c r="B68">
-        <v>574</v>
+        <v>343</v>
       </c>
       <c r="C68">
         <v>-1.8</v>
@@ -2843,30 +3798,45 @@
         <v>1912</v>
       </c>
       <c r="F68">
-        <v>1.2150000000000001</v>
+        <v>0.77</v>
       </c>
       <c r="G68">
+        <v>1.2</v>
+      </c>
+      <c r="H68">
+        <v>1.4</v>
+      </c>
+      <c r="I68">
+        <v>1.49</v>
+      </c>
+      <c r="J68">
+        <v>1.215</v>
+      </c>
+      <c r="K68">
+        <v>8345</v>
+      </c>
+      <c r="L68">
+        <v>780</v>
+      </c>
+      <c r="M68">
         <v>9125</v>
       </c>
-      <c r="H68">
-        <v>2697</v>
-      </c>
-      <c r="I68">
-        <v>2479</v>
-      </c>
-      <c r="J68">
-        <v>218</v>
-      </c>
-      <c r="K68">
+      <c r="N68">
         <v>8.1</v>
       </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O68">
+        <v>0.12</v>
+      </c>
+      <c r="P68">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16">
       <c r="A69" s="2">
         <v>42583</v>
       </c>
       <c r="B69">
-        <v>646</v>
+        <v>356</v>
       </c>
       <c r="C69">
         <v>-0.5</v>
@@ -2878,30 +3848,45 @@
         <v>1913</v>
       </c>
       <c r="F69">
+        <v>0.76</v>
+      </c>
+      <c r="G69">
+        <v>1.16</v>
+      </c>
+      <c r="H69">
+        <v>1.36</v>
+      </c>
+      <c r="I69">
+        <v>1.44</v>
+      </c>
+      <c r="J69">
         <v>1.18</v>
       </c>
-      <c r="G69">
+      <c r="K69">
+        <v>9201</v>
+      </c>
+      <c r="L69">
+        <v>1311</v>
+      </c>
+      <c r="M69">
         <v>10512</v>
       </c>
-      <c r="H69">
-        <v>2647</v>
-      </c>
-      <c r="I69">
-        <v>2447</v>
-      </c>
-      <c r="J69">
-        <v>200</v>
-      </c>
-      <c r="K69">
+      <c r="N69">
         <v>7.6</v>
       </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O69">
+        <v>0.06</v>
+      </c>
+      <c r="P69">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16">
       <c r="A70" s="2">
         <v>42614</v>
       </c>
       <c r="B70">
-        <v>829</v>
+        <v>636</v>
       </c>
       <c r="C70">
         <v>-1.2</v>
@@ -2913,30 +3898,45 @@
         <v>1916</v>
       </c>
       <c r="F70">
-        <v>1.2024999999999999</v>
+        <v>0.78</v>
       </c>
       <c r="G70">
+        <v>1.19</v>
+      </c>
+      <c r="H70">
+        <v>1.38</v>
+      </c>
+      <c r="I70">
+        <v>1.46</v>
+      </c>
+      <c r="J70">
+        <v>1.2025</v>
+      </c>
+      <c r="K70">
+        <v>9651</v>
+      </c>
+      <c r="L70">
+        <v>1169</v>
+      </c>
+      <c r="M70">
         <v>10820</v>
       </c>
-      <c r="H70">
-        <v>2640</v>
-      </c>
-      <c r="I70">
-        <v>2439</v>
-      </c>
-      <c r="J70">
-        <v>200</v>
-      </c>
-      <c r="K70">
+      <c r="N70">
         <v>7.6</v>
       </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O70">
+        <v>0.08</v>
+      </c>
+      <c r="P70">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16">
       <c r="A71" s="2">
         <v>42644</v>
       </c>
       <c r="B71">
-        <v>650</v>
+        <v>549</v>
       </c>
       <c r="C71">
         <v>0.4</v>
@@ -2948,30 +3948,45 @@
         <v>1920</v>
       </c>
       <c r="F71">
-        <v>1.2450000000000001</v>
+        <v>0.83</v>
       </c>
       <c r="G71">
+        <v>1.24</v>
+      </c>
+      <c r="H71">
+        <v>1.42</v>
+      </c>
+      <c r="I71">
+        <v>1.49</v>
+      </c>
+      <c r="J71">
+        <v>1.245</v>
+      </c>
+      <c r="K71">
+        <v>9166</v>
+      </c>
+      <c r="L71">
+        <v>1042</v>
+      </c>
+      <c r="M71">
         <v>10208</v>
       </c>
-      <c r="H71">
-        <v>2635</v>
-      </c>
-      <c r="I71">
-        <v>2419</v>
-      </c>
-      <c r="J71">
-        <v>216</v>
-      </c>
-      <c r="K71">
-        <v>8.1999999999999993</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N71">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="O71">
+        <v>0.17</v>
+      </c>
+      <c r="P71">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16">
       <c r="A72" s="2">
         <v>42675</v>
       </c>
       <c r="B72">
-        <v>662</v>
+        <v>444</v>
       </c>
       <c r="C72">
         <v>-0.3</v>
@@ -2983,30 +3998,45 @@
         <v>1921</v>
       </c>
       <c r="F72">
-        <v>1.2350000000000001</v>
+        <v>0.79</v>
       </c>
       <c r="G72">
+        <v>1.27</v>
+      </c>
+      <c r="H72">
+        <v>1.4</v>
+      </c>
+      <c r="I72">
+        <v>1.48</v>
+      </c>
+      <c r="J72">
+        <v>1.235</v>
+      </c>
+      <c r="K72">
+        <v>9008</v>
+      </c>
+      <c r="L72">
+        <v>1184</v>
+      </c>
+      <c r="M72">
         <v>10192</v>
       </c>
-      <c r="H72">
-        <v>2599</v>
-      </c>
-      <c r="I72">
-        <v>2381</v>
-      </c>
-      <c r="J72">
-        <v>218</v>
-      </c>
-      <c r="K72">
+      <c r="N72">
         <v>8.4</v>
       </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O72">
+        <v>0.41</v>
+      </c>
+      <c r="P72">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16">
       <c r="A73" s="2">
         <v>42705</v>
       </c>
       <c r="B73">
-        <v>522</v>
+        <v>378</v>
       </c>
       <c r="C73">
         <v>0.5</v>
@@ -3018,30 +4048,45 @@
         <v>1925</v>
       </c>
       <c r="F73">
-        <v>1.2849999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="G73">
+        <v>1.32</v>
+      </c>
+      <c r="H73">
+        <v>1.43</v>
+      </c>
+      <c r="I73">
+        <v>1.51</v>
+      </c>
+      <c r="J73">
+        <v>1.285</v>
+      </c>
+      <c r="K73">
+        <v>8151</v>
+      </c>
+      <c r="L73">
+        <v>1351</v>
+      </c>
+      <c r="M73">
         <v>9502</v>
       </c>
-      <c r="H73">
-        <v>2605</v>
-      </c>
-      <c r="I73">
-        <v>2398</v>
-      </c>
-      <c r="J73">
-        <v>207</v>
-      </c>
-      <c r="K73">
+      <c r="N73">
         <v>8</v>
       </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O73">
+        <v>0.46</v>
+      </c>
+      <c r="P73">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16">
       <c r="A74" s="2">
         <v>42736</v>
       </c>
       <c r="B74">
-        <v>711</v>
+        <v>512</v>
       </c>
       <c r="C74">
         <v>2</v>
@@ -3053,30 +4098,45 @@
         <v>1914</v>
       </c>
       <c r="F74">
+        <v>0.9</v>
+      </c>
+      <c r="G74">
+        <v>1.38</v>
+      </c>
+      <c r="H74">
+        <v>1.49</v>
+      </c>
+      <c r="I74">
+        <v>1.57</v>
+      </c>
+      <c r="J74">
         <v>1.335</v>
       </c>
-      <c r="G74">
+      <c r="K74">
+        <v>12744</v>
+      </c>
+      <c r="L74">
+        <v>1440</v>
+      </c>
+      <c r="M74">
         <v>14184</v>
       </c>
-      <c r="H74">
-        <v>2593</v>
-      </c>
-      <c r="I74">
-        <v>2352</v>
-      </c>
-      <c r="J74">
-        <v>240</v>
-      </c>
-      <c r="K74">
-        <v>9.3000000000000007</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N74">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="O74">
+        <v>0.5</v>
+      </c>
+      <c r="P74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16">
       <c r="A75" s="2">
         <v>42767</v>
       </c>
       <c r="B75">
-        <v>729</v>
+        <v>409</v>
       </c>
       <c r="C75">
         <v>0.8</v>
@@ -3088,30 +4148,45 @@
         <v>1923</v>
       </c>
       <c r="F75">
+        <v>0.9</v>
+      </c>
+      <c r="G75">
+        <v>1.36</v>
+      </c>
+      <c r="H75">
+        <v>1.5</v>
+      </c>
+      <c r="I75">
+        <v>1.58</v>
+      </c>
+      <c r="J75">
         <v>1.335</v>
       </c>
-      <c r="G75">
+      <c r="K75">
+        <v>9168</v>
+      </c>
+      <c r="L75">
+        <v>1227</v>
+      </c>
+      <c r="M75">
         <v>10395</v>
       </c>
-      <c r="H75">
-        <v>2592</v>
-      </c>
-      <c r="I75">
-        <v>2344</v>
-      </c>
-      <c r="J75">
-        <v>248</v>
-      </c>
-      <c r="K75">
+      <c r="N75">
         <v>9.6</v>
       </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O75">
+        <v>0.52</v>
+      </c>
+      <c r="P75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16">
       <c r="A76" s="2">
         <v>42795</v>
       </c>
       <c r="B76">
-        <v>901</v>
+        <v>593</v>
       </c>
       <c r="C76">
         <v>3.1</v>
@@ -3123,30 +4198,45 @@
         <v>1923</v>
       </c>
       <c r="F76">
-        <v>1.3075000000000001</v>
+        <v>0.87</v>
       </c>
       <c r="G76">
+        <v>1.34</v>
+      </c>
+      <c r="H76">
+        <v>1.47</v>
+      </c>
+      <c r="I76">
+        <v>1.55</v>
+      </c>
+      <c r="J76">
+        <v>1.3075</v>
+      </c>
+      <c r="K76">
+        <v>11214</v>
+      </c>
+      <c r="L76">
+        <v>1525</v>
+      </c>
+      <c r="M76">
         <v>12739</v>
       </c>
-      <c r="H76">
-        <v>2673</v>
-      </c>
-      <c r="I76">
-        <v>2415</v>
-      </c>
-      <c r="J76">
-        <v>258</v>
-      </c>
-      <c r="K76">
+      <c r="N76">
         <v>9.6</v>
       </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O76">
+        <v>0.51</v>
+      </c>
+      <c r="P76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16">
       <c r="A77" s="2">
         <v>42826</v>
       </c>
       <c r="B77">
-        <v>573</v>
+        <v>355</v>
       </c>
       <c r="C77">
         <v>3.5</v>
@@ -3158,30 +4248,45 @@
         <v>1929</v>
       </c>
       <c r="F77">
-        <v>1.3174999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="G77">
+        <v>1.3</v>
+      </c>
+      <c r="H77">
+        <v>1.49</v>
+      </c>
+      <c r="I77">
+        <v>1.57</v>
+      </c>
+      <c r="J77">
+        <v>1.3175</v>
+      </c>
+      <c r="K77">
+        <v>9399</v>
+      </c>
+      <c r="L77">
+        <v>1297</v>
+      </c>
+      <c r="M77">
         <v>10696</v>
       </c>
-      <c r="H77">
-        <v>2684</v>
-      </c>
-      <c r="I77">
-        <v>2409</v>
-      </c>
-      <c r="J77">
-        <v>275</v>
-      </c>
-      <c r="K77">
+      <c r="N77">
         <v>10.3</v>
       </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O77">
+        <v>0.38</v>
+      </c>
+      <c r="P77">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16">
       <c r="A78" s="2">
         <v>42856</v>
       </c>
       <c r="B78">
-        <v>581</v>
+        <v>358</v>
       </c>
       <c r="C78">
         <v>3.9</v>
@@ -3193,30 +4298,45 @@
         <v>1926</v>
       </c>
       <c r="F78">
+        <v>0.85</v>
+      </c>
+      <c r="G78">
+        <v>1.28</v>
+      </c>
+      <c r="H78">
+        <v>1.48</v>
+      </c>
+      <c r="I78">
+        <v>1.56</v>
+      </c>
+      <c r="J78">
         <v>1.2925</v>
       </c>
-      <c r="G78">
+      <c r="K78">
+        <v>11058</v>
+      </c>
+      <c r="L78">
+        <v>1467</v>
+      </c>
+      <c r="M78">
         <v>12525</v>
       </c>
-      <c r="H78">
-        <v>2723</v>
-      </c>
-      <c r="I78">
-        <v>2427</v>
-      </c>
-      <c r="J78">
-        <v>296</v>
-      </c>
-      <c r="K78">
+      <c r="N78">
         <v>10.9</v>
       </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O78">
+        <v>0.49</v>
+      </c>
+      <c r="P78">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16">
       <c r="A79" s="2">
         <v>42887</v>
       </c>
       <c r="B79">
-        <v>464</v>
+        <v>255</v>
       </c>
       <c r="C79">
         <v>3.3</v>
@@ -3228,30 +4348,45 @@
         <v>1928</v>
       </c>
       <c r="F79">
-        <v>1.2675000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="G79">
+        <v>1.25</v>
+      </c>
+      <c r="H79">
+        <v>1.46</v>
+      </c>
+      <c r="I79">
+        <v>1.54</v>
+      </c>
+      <c r="J79">
+        <v>1.2675</v>
+      </c>
+      <c r="K79">
+        <v>10868</v>
+      </c>
+      <c r="L79">
+        <v>1408</v>
+      </c>
+      <c r="M79">
         <v>12276</v>
       </c>
-      <c r="H79">
-        <v>2784</v>
-      </c>
-      <c r="I79">
-        <v>2534</v>
-      </c>
-      <c r="J79">
-        <v>250</v>
-      </c>
-      <c r="K79">
+      <c r="N79">
         <v>9</v>
       </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O79">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="P79">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16">
       <c r="A80" s="2">
         <v>42917</v>
       </c>
       <c r="B80">
-        <v>497</v>
+        <v>290</v>
       </c>
       <c r="C80">
         <v>3.7</v>
@@ -3263,30 +4398,45 @@
         <v>1922</v>
       </c>
       <c r="F80">
+        <v>0.82</v>
+      </c>
+      <c r="G80">
+        <v>1.25</v>
+      </c>
+      <c r="H80">
+        <v>1.45</v>
+      </c>
+      <c r="I80">
+        <v>1.53</v>
+      </c>
+      <c r="J80">
         <v>1.2625</v>
       </c>
-      <c r="G80">
+      <c r="K80">
+        <v>8855</v>
+      </c>
+      <c r="L80">
+        <v>895</v>
+      </c>
+      <c r="M80">
         <v>9750</v>
       </c>
-      <c r="H80">
-        <v>2726</v>
-      </c>
-      <c r="I80">
-        <v>2520</v>
-      </c>
-      <c r="J80">
-        <v>206</v>
-      </c>
-      <c r="K80">
+      <c r="N80">
         <v>7.6</v>
       </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O80">
+        <v>0.76</v>
+      </c>
+      <c r="P80">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16">
       <c r="A81" s="2">
         <v>42948</v>
       </c>
       <c r="B81">
-        <v>621</v>
+        <v>315</v>
       </c>
       <c r="C81">
         <v>2.6</v>
@@ -3298,30 +4448,45 @@
         <v>1927</v>
       </c>
       <c r="F81">
-        <v>1.2649999999999999</v>
+        <v>0.85</v>
       </c>
       <c r="G81">
+        <v>1.25</v>
+      </c>
+      <c r="H81">
+        <v>1.44</v>
+      </c>
+      <c r="I81">
+        <v>1.52</v>
+      </c>
+      <c r="J81">
+        <v>1.265</v>
+      </c>
+      <c r="K81">
+        <v>9672</v>
+      </c>
+      <c r="L81">
+        <v>1261</v>
+      </c>
+      <c r="M81">
         <v>10933</v>
       </c>
-      <c r="H81">
-        <v>2672</v>
-      </c>
-      <c r="I81">
-        <v>2472</v>
-      </c>
-      <c r="J81">
-        <v>200</v>
-      </c>
-      <c r="K81">
+      <c r="N81">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O81">
+        <v>0.65</v>
+      </c>
+      <c r="P81">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16">
       <c r="A82" s="2">
         <v>42979</v>
       </c>
       <c r="B82">
-        <v>762</v>
+        <v>489</v>
       </c>
       <c r="C82">
         <v>3</v>
@@ -3333,33 +4498,48 @@
         <v>1931</v>
       </c>
       <c r="F82">
-        <v>1.2975000000000001</v>
+        <v>0.88</v>
       </c>
       <c r="G82">
+        <v>1.28</v>
+      </c>
+      <c r="H82">
+        <v>1.47</v>
+      </c>
+      <c r="I82">
+        <v>1.56</v>
+      </c>
+      <c r="J82">
+        <v>1.2975</v>
+      </c>
+      <c r="K82">
+        <v>9118</v>
+      </c>
+      <c r="L82">
+        <v>1424</v>
+      </c>
+      <c r="M82">
         <v>10542</v>
       </c>
-      <c r="H82">
-        <v>2644</v>
-      </c>
-      <c r="I82">
-        <v>2425</v>
-      </c>
-      <c r="J82">
-        <v>219</v>
-      </c>
-      <c r="K82">
-        <v>8.3000000000000007</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N82">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="O82">
+        <v>0.58</v>
+      </c>
+      <c r="P82">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16">
       <c r="A83" s="2">
         <v>43009</v>
       </c>
       <c r="B83">
-        <v>763</v>
+        <v>561</v>
       </c>
       <c r="C83">
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
       <c r="D83">
         <v>110.21</v>
@@ -3368,30 +4548,45 @@
         <v>1931</v>
       </c>
       <c r="F83">
+        <v>0.89</v>
+      </c>
+      <c r="G83">
+        <v>1.28</v>
+      </c>
+      <c r="H83">
+        <v>1.44</v>
+      </c>
+      <c r="I83">
+        <v>1.52</v>
+      </c>
+      <c r="J83">
         <v>1.2825</v>
       </c>
-      <c r="G83">
+      <c r="K83">
+        <v>8752</v>
+      </c>
+      <c r="L83">
+        <v>1086</v>
+      </c>
+      <c r="M83">
         <v>9838</v>
       </c>
-      <c r="H83">
-        <v>2649</v>
-      </c>
-      <c r="I83">
-        <v>2449</v>
-      </c>
-      <c r="J83">
-        <v>201</v>
-      </c>
-      <c r="K83">
+      <c r="N83">
         <v>7.6</v>
       </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O83">
+        <v>0.59</v>
+      </c>
+      <c r="P83">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16">
       <c r="A84" s="2">
         <v>43040</v>
       </c>
       <c r="B84">
-        <v>695</v>
+        <v>422</v>
       </c>
       <c r="C84">
         <v>1.9</v>
@@ -3403,30 +4598,45 @@
         <v>1936</v>
       </c>
       <c r="F84">
+        <v>0.93</v>
+      </c>
+      <c r="G84">
+        <v>1.34</v>
+      </c>
+      <c r="H84">
+        <v>1.48</v>
+      </c>
+      <c r="I84">
+        <v>1.57</v>
+      </c>
+      <c r="J84">
         <v>1.33</v>
       </c>
-      <c r="G84">
+      <c r="K84">
+        <v>9670</v>
+      </c>
+      <c r="L84">
+        <v>1389</v>
+      </c>
+      <c r="M84">
         <v>11059</v>
       </c>
-      <c r="H84">
-        <v>2656</v>
-      </c>
-      <c r="I84">
-        <v>2471</v>
-      </c>
-      <c r="J84">
-        <v>185</v>
-      </c>
-      <c r="K84">
+      <c r="N84">
         <v>7</v>
       </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O84">
+        <v>0.52</v>
+      </c>
+      <c r="P84">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16">
       <c r="A85" s="2">
         <v>43070</v>
       </c>
       <c r="B85">
-        <v>619</v>
+        <v>383</v>
       </c>
       <c r="C85">
         <v>6.8</v>
@@ -3438,30 +4648,45 @@
         <v>1935</v>
       </c>
       <c r="F85">
+        <v>0.92</v>
+      </c>
+      <c r="G85">
+        <v>1.32</v>
+      </c>
+      <c r="H85">
+        <v>1.42</v>
+      </c>
+      <c r="I85">
+        <v>1.51</v>
+      </c>
+      <c r="J85">
         <v>1.2925</v>
       </c>
-      <c r="G85">
+      <c r="K85">
+        <v>8069</v>
+      </c>
+      <c r="L85">
+        <v>1106</v>
+      </c>
+      <c r="M85">
         <v>9175</v>
       </c>
-      <c r="H85">
-        <v>2668</v>
-      </c>
-      <c r="I85">
-        <v>2442</v>
-      </c>
-      <c r="J85">
-        <v>226</v>
-      </c>
-      <c r="K85">
+      <c r="N85">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O85">
+        <v>0.5</v>
+      </c>
+      <c r="P85">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16">
       <c r="A86" s="2">
         <v>43101</v>
       </c>
       <c r="B86">
-        <v>662</v>
+        <v>496</v>
       </c>
       <c r="C86">
         <v>4.3</v>
@@ -3473,33 +4698,48 @@
         <v>1929</v>
       </c>
       <c r="F86">
-        <v>1.3374999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="G86">
+        <v>1.35</v>
+      </c>
+      <c r="H86">
+        <v>1.47</v>
+      </c>
+      <c r="I86">
+        <v>1.55</v>
+      </c>
+      <c r="J86">
+        <v>1.3375</v>
+      </c>
+      <c r="K86">
+        <v>13584</v>
+      </c>
+      <c r="L86">
+        <v>1508</v>
+      </c>
+      <c r="M86">
         <v>15092</v>
       </c>
-      <c r="H86">
-        <v>2653</v>
-      </c>
-      <c r="I86">
-        <v>2414</v>
-      </c>
-      <c r="J86">
-        <v>239</v>
-      </c>
-      <c r="K86">
+      <c r="N86">
         <v>9</v>
       </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O86">
+        <v>0.67</v>
+      </c>
+      <c r="P86">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16">
       <c r="A87" s="2">
         <v>43132</v>
       </c>
       <c r="B87">
-        <v>697</v>
+        <v>490</v>
       </c>
       <c r="C87">
-        <v>4.9000000000000004</v>
+        <v>4.9</v>
       </c>
       <c r="D87">
         <v>110.45</v>
@@ -3508,30 +4748,45 @@
         <v>1935</v>
       </c>
       <c r="F87">
-        <v>1.3075000000000001</v>
+        <v>0.92</v>
       </c>
       <c r="G87">
+        <v>1.33</v>
+      </c>
+      <c r="H87">
+        <v>1.45</v>
+      </c>
+      <c r="I87">
+        <v>1.53</v>
+      </c>
+      <c r="J87">
+        <v>1.3075</v>
+      </c>
+      <c r="K87">
+        <v>9110</v>
+      </c>
+      <c r="L87">
+        <v>1204</v>
+      </c>
+      <c r="M87">
         <v>10314</v>
       </c>
-      <c r="H87">
-        <v>2669</v>
-      </c>
-      <c r="I87">
-        <v>2434</v>
-      </c>
-      <c r="J87">
-        <v>234</v>
-      </c>
-      <c r="K87">
-        <v>8.8000000000000007</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N87">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="O87">
+        <v>0.84</v>
+      </c>
+      <c r="P87">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16">
       <c r="A88" s="2">
         <v>43160</v>
       </c>
       <c r="B88">
-        <v>800</v>
+        <v>491</v>
       </c>
       <c r="C88">
         <v>3.8</v>
@@ -3543,30 +4798,45 @@
         <v>1939</v>
       </c>
       <c r="F88">
+        <v>0.91</v>
+      </c>
+      <c r="G88">
+        <v>1.32</v>
+      </c>
+      <c r="H88">
+        <v>1.43</v>
+      </c>
+      <c r="I88">
+        <v>1.51</v>
+      </c>
+      <c r="J88">
         <v>1.2925</v>
       </c>
-      <c r="G88">
+      <c r="K88">
+        <v>11723</v>
+      </c>
+      <c r="L88">
+        <v>1498</v>
+      </c>
+      <c r="M88">
         <v>13221</v>
       </c>
-      <c r="H88">
-        <v>2692</v>
-      </c>
-      <c r="I88">
-        <v>2451</v>
-      </c>
-      <c r="J88">
-        <v>241</v>
-      </c>
-      <c r="K88">
+      <c r="N88">
         <v>8.9</v>
       </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O88">
+        <v>0.72</v>
+      </c>
+      <c r="P88">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16">
       <c r="A89" s="2">
         <v>43191</v>
       </c>
       <c r="B89">
-        <v>531</v>
+        <v>383</v>
       </c>
       <c r="C89">
         <v>2.9</v>
@@ -3578,33 +4848,48 @@
         <v>1944</v>
       </c>
       <c r="F89">
+        <v>0.97</v>
+      </c>
+      <c r="G89">
         <v>1.34</v>
       </c>
-      <c r="G89">
+      <c r="H89">
+        <v>1.48</v>
+      </c>
+      <c r="I89">
+        <v>1.57</v>
+      </c>
+      <c r="J89">
+        <v>1.34</v>
+      </c>
+      <c r="K89">
+        <v>11047</v>
+      </c>
+      <c r="L89">
+        <v>1440</v>
+      </c>
+      <c r="M89">
         <v>12487</v>
       </c>
-      <c r="H89">
-        <v>2690</v>
-      </c>
-      <c r="I89">
-        <v>2460</v>
-      </c>
-      <c r="J89">
-        <v>230</v>
-      </c>
-      <c r="K89">
+      <c r="N89">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O89">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="P89">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16">
       <c r="A90" s="2">
         <v>43221</v>
       </c>
       <c r="B90">
-        <v>504</v>
+        <v>327</v>
       </c>
       <c r="C90">
-        <v>4.0999999999999996</v>
+        <v>4.1</v>
       </c>
       <c r="D90">
         <v>111.07</v>
@@ -3613,30 +4898,45 @@
         <v>1946</v>
       </c>
       <c r="F90">
+        <v>1.02</v>
+      </c>
+      <c r="G90">
+        <v>1.37</v>
+      </c>
+      <c r="H90">
+        <v>1.53</v>
+      </c>
+      <c r="I90">
+        <v>1.62</v>
+      </c>
+      <c r="J90">
         <v>1.385</v>
       </c>
-      <c r="G90">
+      <c r="K90">
+        <v>12487</v>
+      </c>
+      <c r="L90">
+        <v>1590</v>
+      </c>
+      <c r="M90">
         <v>14077</v>
       </c>
-      <c r="H90">
-        <v>2783</v>
-      </c>
-      <c r="I90">
-        <v>2525</v>
-      </c>
-      <c r="J90">
-        <v>258</v>
-      </c>
-      <c r="K90">
-        <v>9.3000000000000007</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N90">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="O90">
+        <v>0.7</v>
+      </c>
+      <c r="P90">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16">
       <c r="A91" s="2">
         <v>43252</v>
       </c>
       <c r="B91">
-        <v>695</v>
+        <v>524</v>
       </c>
       <c r="C91">
         <v>1.7</v>
@@ -3648,30 +4948,45 @@
         <v>1950</v>
       </c>
       <c r="F91">
+        <v>1.02</v>
+      </c>
+      <c r="G91">
+        <v>1.41</v>
+      </c>
+      <c r="H91">
+        <v>1.57</v>
+      </c>
+      <c r="I91">
+        <v>1.66</v>
+      </c>
+      <c r="J91">
         <v>1.415</v>
       </c>
-      <c r="G91">
+      <c r="K91">
+        <v>11661</v>
+      </c>
+      <c r="L91">
+        <v>1412</v>
+      </c>
+      <c r="M91">
         <v>13073</v>
       </c>
-      <c r="H91">
-        <v>2836</v>
-      </c>
-      <c r="I91">
-        <v>2637</v>
-      </c>
-      <c r="J91">
-        <v>199</v>
-      </c>
-      <c r="K91">
+      <c r="N91">
         <v>7</v>
       </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O91">
+        <v>0.63</v>
+      </c>
+      <c r="P91">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16">
       <c r="A92" s="2">
         <v>43282</v>
       </c>
       <c r="B92">
-        <v>678</v>
+        <v>548</v>
       </c>
       <c r="C92">
         <v>2.5</v>
@@ -3683,30 +4998,45 @@
         <v>1948</v>
       </c>
       <c r="F92">
+        <v>1.01</v>
+      </c>
+      <c r="G92">
+        <v>1.39</v>
+      </c>
+      <c r="H92">
+        <v>1.55</v>
+      </c>
+      <c r="I92">
+        <v>1.64</v>
+      </c>
+      <c r="J92">
         <v>1.3975</v>
       </c>
-      <c r="G92">
+      <c r="K92">
+        <v>9583</v>
+      </c>
+      <c r="L92">
+        <v>870</v>
+      </c>
+      <c r="M92">
         <v>10453</v>
       </c>
-      <c r="H92">
-        <v>2780</v>
-      </c>
-      <c r="I92">
-        <v>2599</v>
-      </c>
-      <c r="J92">
-        <v>181</v>
-      </c>
-      <c r="K92">
+      <c r="N92">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O92">
+        <v>0.53</v>
+      </c>
+      <c r="P92">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16">
       <c r="A93" s="2">
         <v>43313</v>
       </c>
       <c r="B93">
-        <v>1103</v>
+        <v>898</v>
       </c>
       <c r="C93">
         <v>2.4</v>
@@ -3718,30 +5048,45 @@
         <v>1951</v>
       </c>
       <c r="F93">
-        <v>1.4125000000000001</v>
+        <v>1.03</v>
       </c>
       <c r="G93">
+        <v>1.39</v>
+      </c>
+      <c r="H93">
+        <v>1.57</v>
+      </c>
+      <c r="I93">
+        <v>1.66</v>
+      </c>
+      <c r="J93">
+        <v>1.4125</v>
+      </c>
+      <c r="K93">
+        <v>12007</v>
+      </c>
+      <c r="L93">
+        <v>1063</v>
+      </c>
+      <c r="M93">
         <v>13070</v>
       </c>
-      <c r="H93">
-        <v>2731</v>
-      </c>
-      <c r="I93">
-        <v>2549</v>
-      </c>
-      <c r="J93">
-        <v>182</v>
-      </c>
-      <c r="K93">
+      <c r="N93">
         <v>6.7</v>
       </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O93">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="P93">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16">
       <c r="A94" s="2">
         <v>43344</v>
       </c>
       <c r="B94">
-        <v>393</v>
+        <v>302</v>
       </c>
       <c r="C94">
         <v>1.3</v>
@@ -3753,30 +5098,45 @@
         <v>1955</v>
       </c>
       <c r="F94">
+        <v>1.04</v>
+      </c>
+      <c r="G94">
+        <v>1.41</v>
+      </c>
+      <c r="H94">
+        <v>1.58</v>
+      </c>
+      <c r="I94">
+        <v>1.67</v>
+      </c>
+      <c r="J94">
         <v>1.425</v>
       </c>
-      <c r="G94">
+      <c r="K94">
+        <v>6532</v>
+      </c>
+      <c r="L94">
+        <v>1214</v>
+      </c>
+      <c r="M94">
         <v>7746</v>
       </c>
-      <c r="H94">
-        <v>2667</v>
-      </c>
-      <c r="I94">
-        <v>2496</v>
-      </c>
-      <c r="J94">
-        <v>171</v>
-      </c>
-      <c r="K94">
+      <c r="N94">
         <v>6.4</v>
       </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O94">
+        <v>0.66</v>
+      </c>
+      <c r="P94">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16">
       <c r="A95" s="2">
         <v>43374</v>
       </c>
       <c r="B95">
-        <v>393</v>
+        <v>231</v>
       </c>
       <c r="C95">
         <v>0.1</v>
@@ -3788,30 +5148,45 @@
         <v>1960</v>
       </c>
       <c r="F95">
-        <v>1.4524999999999999</v>
+        <v>1.08</v>
       </c>
       <c r="G95">
+        <v>1.48</v>
+      </c>
+      <c r="H95">
+        <v>1.58</v>
+      </c>
+      <c r="I95">
+        <v>1.67</v>
+      </c>
+      <c r="J95">
+        <v>1.4525</v>
+      </c>
+      <c r="K95">
+        <v>7940</v>
+      </c>
+      <c r="L95">
+        <v>1352</v>
+      </c>
+      <c r="M95">
         <v>9292</v>
       </c>
-      <c r="H95">
-        <v>2678</v>
-      </c>
-      <c r="I95">
-        <v>2505</v>
-      </c>
-      <c r="J95">
-        <v>173</v>
-      </c>
-      <c r="K95">
+      <c r="N95">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O95">
+        <v>0.73</v>
+      </c>
+      <c r="P95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16">
       <c r="A96" s="2">
         <v>43405</v>
       </c>
       <c r="B96">
-        <v>488</v>
+        <v>296</v>
       </c>
       <c r="C96">
         <v>-1.6</v>
@@ -3823,30 +5198,45 @@
         <v>1960</v>
       </c>
       <c r="F96">
-        <v>1.4550000000000001</v>
+        <v>1.03</v>
       </c>
       <c r="G96">
+        <v>1.54</v>
+      </c>
+      <c r="H96">
+        <v>1.58</v>
+      </c>
+      <c r="I96">
+        <v>1.67</v>
+      </c>
+      <c r="J96">
+        <v>1.455</v>
+      </c>
+      <c r="K96">
+        <v>8667</v>
+      </c>
+      <c r="L96">
+        <v>1260</v>
+      </c>
+      <c r="M96">
         <v>9927</v>
       </c>
-      <c r="H96">
-        <v>2667</v>
-      </c>
-      <c r="I96">
-        <v>2502</v>
-      </c>
-      <c r="J96">
-        <v>165</v>
-      </c>
-      <c r="K96">
+      <c r="N96">
         <v>6.2</v>
       </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O96">
+        <v>0.66</v>
+      </c>
+      <c r="P96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16">
       <c r="A97" s="2">
         <v>43435</v>
       </c>
       <c r="B97">
-        <v>350</v>
+        <v>182</v>
       </c>
       <c r="C97">
         <v>-2.1</v>
@@ -3858,30 +5248,45 @@
         <v>1958</v>
       </c>
       <c r="F97">
+        <v>0.93</v>
+      </c>
+      <c r="G97">
+        <v>1.47</v>
+      </c>
+      <c r="H97">
+        <v>1.48</v>
+      </c>
+      <c r="I97">
+        <v>1.57</v>
+      </c>
+      <c r="J97">
         <v>1.3625</v>
       </c>
-      <c r="G97">
+      <c r="K97">
+        <v>6164</v>
+      </c>
+      <c r="L97">
+        <v>1104</v>
+      </c>
+      <c r="M97">
         <v>7268</v>
       </c>
-      <c r="H97">
-        <v>2654</v>
-      </c>
-      <c r="I97">
-        <v>2512</v>
-      </c>
-      <c r="J97">
-        <v>143</v>
-      </c>
-      <c r="K97">
+      <c r="N97">
         <v>5.4</v>
       </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O97">
+        <v>0.55</v>
+      </c>
+      <c r="P97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16">
       <c r="A98" s="2">
         <v>43466</v>
       </c>
       <c r="B98">
-        <v>529</v>
+        <v>395</v>
       </c>
       <c r="C98">
         <v>-2.4</v>
@@ -3893,30 +5298,45 @@
         <v>1950</v>
       </c>
       <c r="F98">
+        <v>0.93</v>
+      </c>
+      <c r="G98">
+        <v>1.39</v>
+      </c>
+      <c r="H98">
+        <v>1.44</v>
+      </c>
+      <c r="I98">
+        <v>1.53</v>
+      </c>
+      <c r="J98">
         <v>1.3225</v>
       </c>
-      <c r="G98">
+      <c r="K98">
+        <v>11738</v>
+      </c>
+      <c r="L98">
+        <v>1493</v>
+      </c>
+      <c r="M98">
         <v>13231</v>
       </c>
-      <c r="H98">
-        <v>2662</v>
-      </c>
-      <c r="I98">
-        <v>2477</v>
-      </c>
-      <c r="J98">
-        <v>184</v>
-      </c>
-      <c r="K98">
+      <c r="N98">
         <v>6.9</v>
       </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O98">
+        <v>0.49</v>
+      </c>
+      <c r="P98">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16">
       <c r="A99" s="2">
         <v>43497</v>
       </c>
       <c r="B99">
-        <v>520</v>
+        <v>312</v>
       </c>
       <c r="C99">
         <v>-2.4</v>
@@ -3928,33 +5348,48 @@
         <v>1959</v>
       </c>
       <c r="F99">
+        <v>0.97</v>
+      </c>
+      <c r="G99">
+        <v>1.4</v>
+      </c>
+      <c r="H99">
+        <v>1.43</v>
+      </c>
+      <c r="I99">
+        <v>1.52</v>
+      </c>
+      <c r="J99">
         <v>1.33</v>
       </c>
-      <c r="G99">
+      <c r="K99">
+        <v>8085</v>
+      </c>
+      <c r="L99">
+        <v>1056</v>
+      </c>
+      <c r="M99">
         <v>9141</v>
       </c>
-      <c r="H99">
-        <v>2670</v>
-      </c>
-      <c r="I99">
-        <v>2474</v>
-      </c>
-      <c r="J99">
-        <v>196</v>
-      </c>
-      <c r="K99">
+      <c r="N99">
         <v>7.3</v>
       </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O99">
+        <v>0.38</v>
+      </c>
+      <c r="P99">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16">
       <c r="A100" s="2">
         <v>43525</v>
       </c>
       <c r="B100">
-        <v>744</v>
+        <v>599</v>
       </c>
       <c r="C100">
-        <v>-2.2999999999999998</v>
+        <v>-2.3</v>
       </c>
       <c r="D100">
         <v>111.91</v>
@@ -3963,30 +5398,45 @@
         <v>1961</v>
       </c>
       <c r="F100">
-        <v>1.3725000000000001</v>
+        <v>1</v>
       </c>
       <c r="G100">
+        <v>1.44</v>
+      </c>
+      <c r="H100">
+        <v>1.48</v>
+      </c>
+      <c r="I100">
+        <v>1.57</v>
+      </c>
+      <c r="J100">
+        <v>1.3725</v>
+      </c>
+      <c r="K100">
+        <v>9279</v>
+      </c>
+      <c r="L100">
+        <v>1380</v>
+      </c>
+      <c r="M100">
         <v>10659</v>
       </c>
-      <c r="H100">
-        <v>2695</v>
-      </c>
-      <c r="I100">
-        <v>2506</v>
-      </c>
-      <c r="J100">
-        <v>189</v>
-      </c>
-      <c r="K100">
+      <c r="N100">
         <v>7</v>
       </c>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O100">
+        <v>0.39</v>
+      </c>
+      <c r="P100">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16">
       <c r="A101" s="2">
         <v>43556</v>
       </c>
       <c r="B101">
-        <v>482</v>
+        <v>334</v>
       </c>
       <c r="C101">
         <v>-1.7</v>
@@ -3998,30 +5448,45 @@
         <v>1972</v>
       </c>
       <c r="F101">
+        <v>1.01</v>
+      </c>
+      <c r="G101">
+        <v>1.42</v>
+      </c>
+      <c r="H101">
+        <v>1.56</v>
+      </c>
+      <c r="I101">
+        <v>1.65</v>
+      </c>
+      <c r="J101">
         <v>1.41</v>
       </c>
-      <c r="G101">
+      <c r="K101">
+        <v>9748</v>
+      </c>
+      <c r="L101">
+        <v>1369</v>
+      </c>
+      <c r="M101">
         <v>11117</v>
       </c>
-      <c r="H101">
-        <v>2711</v>
-      </c>
-      <c r="I101">
-        <v>2491</v>
-      </c>
-      <c r="J101">
-        <v>219</v>
-      </c>
-      <c r="K101">
+      <c r="N101">
         <v>8.1</v>
       </c>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O101">
+        <v>0.34</v>
+      </c>
+      <c r="P101">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16">
       <c r="A102" s="2">
         <v>43586</v>
       </c>
       <c r="B102">
-        <v>510</v>
+        <v>378</v>
       </c>
       <c r="C102">
         <v>-1.8</v>
@@ -4033,33 +5498,48 @@
         <v>1969</v>
       </c>
       <c r="F102">
+        <v>1.03</v>
+      </c>
+      <c r="G102">
+        <v>1.42</v>
+      </c>
+      <c r="H102">
+        <v>1.59</v>
+      </c>
+      <c r="I102">
+        <v>1.68</v>
+      </c>
+      <c r="J102">
         <v>1.43</v>
       </c>
-      <c r="G102">
+      <c r="K102">
+        <v>10891</v>
+      </c>
+      <c r="L102">
+        <v>1327</v>
+      </c>
+      <c r="M102">
         <v>12218</v>
       </c>
-      <c r="H102">
-        <v>2793</v>
-      </c>
-      <c r="I102">
-        <v>2542</v>
-      </c>
-      <c r="J102">
-        <v>251</v>
-      </c>
-      <c r="K102">
+      <c r="N102">
         <v>9</v>
       </c>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O102">
+        <v>0.25</v>
+      </c>
+      <c r="P102">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16">
       <c r="A103" s="2">
         <v>43617</v>
       </c>
       <c r="B103">
-        <v>520</v>
+        <v>305</v>
       </c>
       <c r="C103">
-        <v>-4.5999999999999996</v>
+        <v>-4.6</v>
       </c>
       <c r="D103">
         <v>112.45</v>
@@ -4068,30 +5548,45 @@
         <v>1970</v>
       </c>
       <c r="F103">
+        <v>0.95</v>
+      </c>
+      <c r="G103">
+        <v>1.4</v>
+      </c>
+      <c r="H103">
+        <v>1.58</v>
+      </c>
+      <c r="I103">
+        <v>1.66</v>
+      </c>
+      <c r="J103">
         <v>1.3975</v>
       </c>
-      <c r="G103">
+      <c r="K103">
+        <v>10539</v>
+      </c>
+      <c r="L103">
+        <v>1344</v>
+      </c>
+      <c r="M103">
         <v>11883</v>
       </c>
-      <c r="H103">
-        <v>2808</v>
-      </c>
-      <c r="I103">
-        <v>2629</v>
-      </c>
-      <c r="J103">
-        <v>179</v>
-      </c>
-      <c r="K103">
+      <c r="N103">
         <v>6.4</v>
       </c>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O103">
+        <v>0.05</v>
+      </c>
+      <c r="P103">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16">
       <c r="A104" s="2">
         <v>43647</v>
       </c>
       <c r="B104">
-        <v>452</v>
+        <v>325</v>
       </c>
       <c r="C104">
         <v>-3.9</v>
@@ -4103,30 +5598,45 @@
         <v>1965</v>
       </c>
       <c r="F104">
+        <v>0.98</v>
+      </c>
+      <c r="G104">
+        <v>1.38</v>
+      </c>
+      <c r="H104">
+        <v>1.57</v>
+      </c>
+      <c r="I104">
+        <v>1.65</v>
+      </c>
+      <c r="J104">
         <v>1.395</v>
       </c>
-      <c r="G104">
+      <c r="K104">
+        <v>9221</v>
+      </c>
+      <c r="L104">
+        <v>909</v>
+      </c>
+      <c r="M104">
         <v>10130</v>
       </c>
-      <c r="H104">
-        <v>2779</v>
-      </c>
-      <c r="I104">
-        <v>2614</v>
-      </c>
-      <c r="J104">
-        <v>164</v>
-      </c>
-      <c r="K104">
+      <c r="N104">
         <v>5.9</v>
       </c>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O104">
+        <v>-0.09</v>
+      </c>
+      <c r="P104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16">
       <c r="A105" s="2">
         <v>43678</v>
       </c>
       <c r="B105">
-        <v>548</v>
+        <v>365</v>
       </c>
       <c r="C105">
         <v>-4.5</v>
@@ -4138,30 +5648,45 @@
         <v>1973</v>
       </c>
       <c r="F105">
+        <v>0.95</v>
+      </c>
+      <c r="G105">
+        <v>1.36</v>
+      </c>
+      <c r="H105">
+        <v>1.54</v>
+      </c>
+      <c r="I105">
+        <v>1.63</v>
+      </c>
+      <c r="J105">
         <v>1.37</v>
       </c>
-      <c r="G105">
+      <c r="K105">
+        <v>9994</v>
+      </c>
+      <c r="L105">
+        <v>1617</v>
+      </c>
+      <c r="M105">
         <v>11611</v>
       </c>
-      <c r="H105">
-        <v>2716</v>
-      </c>
-      <c r="I105">
-        <v>2549</v>
-      </c>
-      <c r="J105">
-        <v>167</v>
-      </c>
-      <c r="K105">
+      <c r="N105">
         <v>6.1</v>
       </c>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O105">
+        <v>-0.35</v>
+      </c>
+      <c r="P105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16">
       <c r="A106" s="2">
         <v>43709</v>
       </c>
       <c r="B106">
-        <v>486</v>
+        <v>375</v>
       </c>
       <c r="C106">
         <v>-4.2</v>
@@ -4173,30 +5698,45 @@
         <v>1973</v>
       </c>
       <c r="F106">
+        <v>0.99</v>
+      </c>
+      <c r="G106">
+        <v>1.4</v>
+      </c>
+      <c r="H106">
+        <v>1.54</v>
+      </c>
+      <c r="I106">
+        <v>1.63</v>
+      </c>
+      <c r="J106">
         <v>1.39</v>
       </c>
-      <c r="G106">
+      <c r="K106">
+        <v>8439</v>
+      </c>
+      <c r="L106">
+        <v>936</v>
+      </c>
+      <c r="M106">
         <v>9375</v>
       </c>
-      <c r="H106">
-        <v>2694</v>
-      </c>
-      <c r="I106">
-        <v>2533</v>
-      </c>
-      <c r="J106">
-        <v>161</v>
-      </c>
-      <c r="K106">
+      <c r="N106">
         <v>6</v>
       </c>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O106">
+        <v>-0.3</v>
+      </c>
+      <c r="P106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16">
       <c r="A107" s="2">
         <v>43739</v>
       </c>
       <c r="B107">
-        <v>374</v>
+        <v>270</v>
       </c>
       <c r="C107">
         <v>-6.6</v>
@@ -4208,30 +5748,45 @@
         <v>1975</v>
       </c>
       <c r="F107">
+        <v>0.99</v>
+      </c>
+      <c r="G107">
+        <v>1.42</v>
+      </c>
+      <c r="H107">
+        <v>1.53</v>
+      </c>
+      <c r="I107">
+        <v>1.62</v>
+      </c>
+      <c r="J107">
         <v>1.39</v>
       </c>
-      <c r="G107">
+      <c r="K107">
+        <v>9371</v>
+      </c>
+      <c r="L107">
+        <v>1124</v>
+      </c>
+      <c r="M107">
         <v>10495</v>
       </c>
-      <c r="H107">
-        <v>2698</v>
-      </c>
-      <c r="I107">
-        <v>2532</v>
-      </c>
-      <c r="J107">
-        <v>166</v>
-      </c>
-      <c r="K107">
+      <c r="N107">
         <v>6.2</v>
       </c>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O107">
+        <v>-0.21</v>
+      </c>
+      <c r="P107">
+        <v>-0.3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16">
       <c r="A108" s="2">
         <v>43770</v>
       </c>
       <c r="B108">
-        <v>374</v>
+        <v>264</v>
       </c>
       <c r="C108">
         <v>-5</v>
@@ -4243,30 +5798,45 @@
         <v>1973</v>
       </c>
       <c r="F108">
+        <v>0.98</v>
+      </c>
+      <c r="G108">
+        <v>1.42</v>
+      </c>
+      <c r="H108">
+        <v>1.53</v>
+      </c>
+      <c r="I108">
+        <v>1.62</v>
+      </c>
+      <c r="J108">
         <v>1.3875</v>
       </c>
-      <c r="G108">
+      <c r="K108">
+        <v>8683</v>
+      </c>
+      <c r="L108">
+        <v>1030</v>
+      </c>
+      <c r="M108">
         <v>9713</v>
       </c>
-      <c r="H108">
-        <v>2674</v>
-      </c>
-      <c r="I108">
-        <v>2513</v>
-      </c>
-      <c r="J108">
-        <v>161</v>
-      </c>
-      <c r="K108">
+      <c r="N108">
         <v>6</v>
       </c>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O108">
+        <v>-0.08</v>
+      </c>
+      <c r="P108">
+        <v>-0.3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16">
       <c r="A109" s="2">
         <v>43800</v>
       </c>
       <c r="B109">
-        <v>351</v>
+        <v>145</v>
       </c>
       <c r="C109">
         <v>-4.2</v>
@@ -4278,33 +5848,48 @@
         <v>1976</v>
       </c>
       <c r="F109">
+        <v>0.99</v>
+      </c>
+      <c r="G109">
+        <v>1.43</v>
+      </c>
+      <c r="H109">
+        <v>1.53</v>
+      </c>
+      <c r="I109">
+        <v>1.63</v>
+      </c>
+      <c r="J109">
         <v>1.395</v>
       </c>
-      <c r="G109">
+      <c r="K109">
+        <v>8215</v>
+      </c>
+      <c r="L109">
+        <v>1119</v>
+      </c>
+      <c r="M109">
         <v>9334</v>
       </c>
-      <c r="H109">
-        <v>2700</v>
-      </c>
-      <c r="I109">
-        <v>2539</v>
-      </c>
-      <c r="J109">
-        <v>161</v>
-      </c>
-      <c r="K109">
+      <c r="N109">
         <v>6</v>
       </c>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O109">
+        <v>-0.03</v>
+      </c>
+      <c r="P109">
+        <v>-0.3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16">
       <c r="A110" s="2">
         <v>43831</v>
       </c>
       <c r="B110">
-        <v>492</v>
+        <v>346</v>
       </c>
       <c r="C110">
-        <v>-4.5999999999999996</v>
+        <v>-4.6</v>
       </c>
       <c r="D110">
         <v>112.41</v>
@@ -4313,30 +5898,45 @@
         <v>1969</v>
       </c>
       <c r="F110">
+        <v>0.99</v>
+      </c>
+      <c r="G110">
+        <v>1.46</v>
+      </c>
+      <c r="H110">
+        <v>1.55</v>
+      </c>
+      <c r="I110">
+        <v>1.64</v>
+      </c>
+      <c r="J110">
         <v>1.41</v>
       </c>
-      <c r="G110">
+      <c r="K110">
+        <v>10801</v>
+      </c>
+      <c r="L110">
+        <v>1274</v>
+      </c>
+      <c r="M110">
         <v>12075</v>
       </c>
-      <c r="H110">
-        <v>2705</v>
-      </c>
-      <c r="I110">
-        <v>2514</v>
-      </c>
-      <c r="J110">
-        <v>192</v>
-      </c>
-      <c r="K110">
+      <c r="N110">
         <v>7.1</v>
       </c>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O110">
+        <v>-0.07000000000000001</v>
+      </c>
+      <c r="P110">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16">
       <c r="A111" s="2">
         <v>43862</v>
       </c>
       <c r="B111">
-        <v>462</v>
+        <v>292</v>
       </c>
       <c r="C111">
         <v>-4.5</v>
@@ -4348,30 +5948,45 @@
         <v>1976</v>
       </c>
       <c r="F111">
+        <v>0.91</v>
+      </c>
+      <c r="G111">
+        <v>1.39</v>
+      </c>
+      <c r="H111">
+        <v>1.51</v>
+      </c>
+      <c r="I111">
+        <v>1.59</v>
+      </c>
+      <c r="J111">
         <v>1.35</v>
       </c>
-      <c r="G111">
+      <c r="K111">
+        <v>8271</v>
+      </c>
+      <c r="L111">
+        <v>1018</v>
+      </c>
+      <c r="M111">
         <v>9289</v>
       </c>
-      <c r="H111">
-        <v>2663</v>
-      </c>
-      <c r="I111">
-        <v>2479</v>
-      </c>
-      <c r="J111">
-        <v>185</v>
-      </c>
-      <c r="K111">
+      <c r="N111">
         <v>6.9</v>
       </c>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O111">
+        <v>-0.23</v>
+      </c>
+      <c r="P111">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16">
       <c r="A112" s="2">
         <v>43891</v>
       </c>
       <c r="B112">
-        <v>324</v>
+        <v>246</v>
       </c>
       <c r="C112">
         <v>-7.1</v>
@@ -4383,30 +5998,45 @@
         <v>1973</v>
       </c>
       <c r="F112">
-        <v>1.2549999999999999</v>
+        <v>0.77</v>
       </c>
       <c r="G112">
+        <v>1.3</v>
+      </c>
+      <c r="H112">
+        <v>1.43</v>
+      </c>
+      <c r="I112">
+        <v>1.52</v>
+      </c>
+      <c r="J112">
+        <v>1.255</v>
+      </c>
+      <c r="K112">
+        <v>9200</v>
+      </c>
+      <c r="L112">
+        <v>1221</v>
+      </c>
+      <c r="M112">
         <v>10421</v>
       </c>
-      <c r="H112">
-        <v>2669</v>
-      </c>
-      <c r="I112">
-        <v>2474</v>
-      </c>
-      <c r="J112">
-        <v>195</v>
-      </c>
-      <c r="K112">
+      <c r="N112">
         <v>7.3</v>
       </c>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O112">
+        <v>-0.12</v>
+      </c>
+      <c r="P112">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16">
       <c r="A113" s="2">
         <v>43922</v>
       </c>
       <c r="B113">
-        <v>172</v>
+        <v>139</v>
       </c>
       <c r="C113">
         <v>-13.9</v>
@@ -4418,30 +6048,45 @@
         <v>1966</v>
       </c>
       <c r="F113">
+        <v>0.7</v>
+      </c>
+      <c r="G113">
+        <v>1.23</v>
+      </c>
+      <c r="H113">
+        <v>1.33</v>
+      </c>
+      <c r="I113">
+        <v>1.42</v>
+      </c>
+      <c r="J113">
         <v>1.17</v>
       </c>
-      <c r="G113">
+      <c r="K113">
+        <v>5981</v>
+      </c>
+      <c r="L113">
+        <v>970</v>
+      </c>
+      <c r="M113">
         <v>6951</v>
       </c>
-      <c r="H113">
-        <v>2660</v>
-      </c>
-      <c r="I113">
-        <v>2446</v>
-      </c>
-      <c r="J113">
-        <v>214</v>
-      </c>
-      <c r="K113">
+      <c r="N113">
         <v>8</v>
       </c>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O113">
+        <v>0.03</v>
+      </c>
+      <c r="P113">
+        <v>-6.2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:16">
       <c r="A114" s="2">
         <v>43952</v>
       </c>
       <c r="B114">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="C114">
         <v>-9</v>
@@ -4453,30 +6098,45 @@
         <v>1965</v>
       </c>
       <c r="F114">
+        <v>0.66</v>
+      </c>
+      <c r="G114">
+        <v>1.16</v>
+      </c>
+      <c r="H114">
+        <v>1.28</v>
+      </c>
+      <c r="I114">
+        <v>1.36</v>
+      </c>
+      <c r="J114">
         <v>1.115</v>
       </c>
-      <c r="G114">
+      <c r="K114">
+        <v>5113</v>
+      </c>
+      <c r="L114">
+        <v>912</v>
+      </c>
+      <c r="M114">
         <v>6025</v>
       </c>
-      <c r="H114">
-        <v>2742</v>
-      </c>
-      <c r="I114">
-        <v>2442</v>
-      </c>
-      <c r="J114">
-        <v>300</v>
-      </c>
-      <c r="K114">
+      <c r="N114">
         <v>10.9</v>
       </c>
-    </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O114">
+        <v>-0.12</v>
+      </c>
+      <c r="P114">
+        <v>-6.2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:16">
       <c r="A115" s="2">
         <v>43983</v>
       </c>
       <c r="B115">
-        <v>256</v>
+        <v>207</v>
       </c>
       <c r="C115">
         <v>-3.9</v>
@@ -4488,30 +6148,45 @@
         <v>1969</v>
       </c>
       <c r="F115">
+        <v>0.74</v>
+      </c>
+      <c r="G115">
+        <v>1.18</v>
+      </c>
+      <c r="H115">
+        <v>1.35</v>
+      </c>
+      <c r="I115">
+        <v>1.43</v>
+      </c>
+      <c r="J115">
         <v>1.175</v>
       </c>
-      <c r="G115">
+      <c r="K115">
+        <v>8026</v>
+      </c>
+      <c r="L115">
+        <v>871</v>
+      </c>
+      <c r="M115">
         <v>8897</v>
       </c>
-      <c r="H115">
-        <v>2770</v>
-      </c>
-      <c r="I115">
-        <v>2556</v>
-      </c>
-      <c r="J115">
-        <v>214</v>
-      </c>
-      <c r="K115">
+      <c r="N115">
         <v>7.7</v>
       </c>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O115">
+        <v>-0.17</v>
+      </c>
+      <c r="P115">
+        <v>-6.2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:16">
       <c r="A116" s="2">
         <v>44013</v>
       </c>
       <c r="B116">
-        <v>418</v>
+        <v>303</v>
       </c>
       <c r="C116">
         <v>-1.6</v>
@@ -4523,33 +6198,48 @@
         <v>1976</v>
       </c>
       <c r="F116">
+        <v>0.77</v>
+      </c>
+      <c r="G116">
         <v>1.22</v>
       </c>
-      <c r="G116">
+      <c r="H116">
+        <v>1.4</v>
+      </c>
+      <c r="I116">
+        <v>1.49</v>
+      </c>
+      <c r="J116">
+        <v>1.22</v>
+      </c>
+      <c r="K116">
+        <v>9104</v>
+      </c>
+      <c r="L116">
+        <v>754</v>
+      </c>
+      <c r="M116">
         <v>9858</v>
       </c>
-      <c r="H116">
-        <v>2759</v>
-      </c>
-      <c r="I116">
-        <v>2553</v>
-      </c>
-      <c r="J116">
-        <v>206</v>
-      </c>
-      <c r="K116">
+      <c r="N116">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O116">
+        <v>-0.21</v>
+      </c>
+      <c r="P116">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16">
       <c r="A117" s="2">
         <v>44044</v>
       </c>
       <c r="B117">
-        <v>366</v>
+        <v>256</v>
       </c>
       <c r="C117">
-        <v>-5.0999999999999996</v>
+        <v>-5.1</v>
       </c>
       <c r="D117">
         <v>112.83</v>
@@ -4558,30 +6248,45 @@
         <v>1977</v>
       </c>
       <c r="F117">
-        <v>1.2575000000000001</v>
+        <v>0.76</v>
       </c>
       <c r="G117">
+        <v>1.28</v>
+      </c>
+      <c r="H117">
+        <v>1.45</v>
+      </c>
+      <c r="I117">
+        <v>1.54</v>
+      </c>
+      <c r="J117">
+        <v>1.2575</v>
+      </c>
+      <c r="K117">
+        <v>8488</v>
+      </c>
+      <c r="L117">
+        <v>1038</v>
+      </c>
+      <c r="M117">
         <v>9526</v>
       </c>
-      <c r="H117">
-        <v>2696</v>
-      </c>
-      <c r="I117">
-        <v>2484</v>
-      </c>
-      <c r="J117">
-        <v>212</v>
-      </c>
-      <c r="K117">
+      <c r="N117">
         <v>7.8</v>
       </c>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O117">
+        <v>-0.25</v>
+      </c>
+      <c r="P117">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16">
       <c r="A118" s="2">
         <v>44075</v>
       </c>
       <c r="B118">
-        <v>397</v>
+        <v>286</v>
       </c>
       <c r="C118">
         <v>-5.9</v>
@@ -4593,30 +6298,45 @@
         <v>1977</v>
       </c>
       <c r="F118">
+        <v>0.71</v>
+      </c>
+      <c r="G118">
+        <v>1.25</v>
+      </c>
+      <c r="H118">
+        <v>1.45</v>
+      </c>
+      <c r="I118">
+        <v>1.54</v>
+      </c>
+      <c r="J118">
         <v>1.2375</v>
       </c>
-      <c r="G118">
+      <c r="K118">
+        <v>8424</v>
+      </c>
+      <c r="L118">
+        <v>1158</v>
+      </c>
+      <c r="M118">
         <v>9582</v>
       </c>
-      <c r="H118">
-        <v>2713</v>
-      </c>
-      <c r="I118">
-        <v>2510</v>
-      </c>
-      <c r="J118">
-        <v>203</v>
-      </c>
-      <c r="K118">
+      <c r="N118">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O118">
+        <v>-0.3</v>
+      </c>
+      <c r="P118">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16">
       <c r="A119" s="2">
         <v>44105</v>
       </c>
       <c r="B119">
-        <v>365</v>
+        <v>272</v>
       </c>
       <c r="C119">
         <v>-6.9</v>
@@ -4628,30 +6348,45 @@
         <v>1979</v>
       </c>
       <c r="F119">
-        <v>1.2350000000000001</v>
+        <v>0.72</v>
       </c>
       <c r="G119">
+        <v>1.24</v>
+      </c>
+      <c r="H119">
+        <v>1.45</v>
+      </c>
+      <c r="I119">
+        <v>1.53</v>
+      </c>
+      <c r="J119">
+        <v>1.235</v>
+      </c>
+      <c r="K119">
+        <v>7502</v>
+      </c>
+      <c r="L119">
+        <v>1214</v>
+      </c>
+      <c r="M119">
         <v>8716</v>
       </c>
-      <c r="H119">
-        <v>2706</v>
-      </c>
-      <c r="I119">
-        <v>2506</v>
-      </c>
-      <c r="J119">
-        <v>201</v>
-      </c>
-      <c r="K119">
+      <c r="N119">
         <v>7.4</v>
       </c>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O119">
+        <v>-0.38</v>
+      </c>
+      <c r="P119">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="120" spans="1:16">
       <c r="A120" s="2">
         <v>44136</v>
       </c>
       <c r="B120">
-        <v>288</v>
+        <v>203</v>
       </c>
       <c r="C120">
         <v>-4.8</v>
@@ -4663,33 +6398,48 @@
         <v>1977</v>
       </c>
       <c r="F120">
-        <v>1.2024999999999999</v>
+        <v>0.72</v>
       </c>
       <c r="G120">
+        <v>1.24</v>
+      </c>
+      <c r="H120">
+        <v>1.38</v>
+      </c>
+      <c r="I120">
+        <v>1.47</v>
+      </c>
+      <c r="J120">
+        <v>1.2025</v>
+      </c>
+      <c r="K120">
+        <v>7375</v>
+      </c>
+      <c r="L120">
+        <v>1072</v>
+      </c>
+      <c r="M120">
         <v>8447</v>
       </c>
-      <c r="H120">
-        <v>2687</v>
-      </c>
-      <c r="I120">
-        <v>2499</v>
-      </c>
-      <c r="J120">
-        <v>188</v>
-      </c>
-      <c r="K120">
+      <c r="N120">
         <v>7</v>
       </c>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O120">
+        <v>-0.4</v>
+      </c>
+      <c r="P120">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="121" spans="1:16">
       <c r="A121" s="2">
         <v>44166</v>
       </c>
       <c r="B121">
-        <v>289</v>
+        <v>167</v>
       </c>
       <c r="C121">
-        <v>-4.5999999999999996</v>
+        <v>-4.6</v>
       </c>
       <c r="D121">
         <v>113.02</v>
@@ -4698,30 +6448,45 @@
         <v>1980</v>
       </c>
       <c r="F121">
-        <v>1.2524999999999999</v>
+        <v>0.77</v>
       </c>
       <c r="G121">
+        <v>1.3</v>
+      </c>
+      <c r="H121">
+        <v>1.43</v>
+      </c>
+      <c r="I121">
+        <v>1.51</v>
+      </c>
+      <c r="J121">
+        <v>1.2525</v>
+      </c>
+      <c r="K121">
+        <v>8133</v>
+      </c>
+      <c r="L121">
+        <v>1340</v>
+      </c>
+      <c r="M121">
         <v>9473</v>
       </c>
-      <c r="H121">
-        <v>2671</v>
-      </c>
-      <c r="I121">
-        <v>2467</v>
-      </c>
-      <c r="J121">
-        <v>203</v>
-      </c>
-      <c r="K121">
+      <c r="N121">
         <v>7.6</v>
       </c>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O121">
+        <v>-0.41</v>
+      </c>
+      <c r="P121">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="122" spans="1:16">
       <c r="A122" s="2">
         <v>44197</v>
       </c>
       <c r="B122">
-        <v>425</v>
+        <v>234</v>
       </c>
       <c r="C122">
         <v>-0.9</v>
@@ -4733,30 +6498,45 @@
         <v>1987</v>
       </c>
       <c r="F122">
+        <v>0.86</v>
+      </c>
+      <c r="G122">
+        <v>1.38</v>
+      </c>
+      <c r="H122">
+        <v>1.48</v>
+      </c>
+      <c r="I122">
+        <v>1.57</v>
+      </c>
+      <c r="J122">
         <v>1.3225</v>
       </c>
-      <c r="G122">
+      <c r="K122">
+        <v>9376</v>
+      </c>
+      <c r="L122">
+        <v>1303</v>
+      </c>
+      <c r="M122">
         <v>10679</v>
       </c>
-      <c r="H122">
-        <v>2682</v>
-      </c>
-      <c r="I122">
-        <v>2445</v>
-      </c>
-      <c r="J122">
-        <v>237</v>
-      </c>
-      <c r="K122">
-        <v>8.8000000000000007</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N122">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="O122">
+        <v>-0.378421</v>
+      </c>
+      <c r="P122">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:16">
       <c r="A123" s="2">
         <v>44228</v>
       </c>
       <c r="B123">
-        <v>333</v>
+        <v>229</v>
       </c>
       <c r="C123">
         <v>-0.8</v>
@@ -4768,30 +6548,45 @@
         <v>1994</v>
       </c>
       <c r="F123">
+        <v>0.92</v>
+      </c>
+      <c r="G123">
+        <v>1.44</v>
+      </c>
+      <c r="H123">
+        <v>1.55</v>
+      </c>
+      <c r="I123">
+        <v>1.64</v>
+      </c>
+      <c r="J123">
         <v>1.3875</v>
       </c>
-      <c r="G123">
+      <c r="K123">
+        <v>8175</v>
+      </c>
+      <c r="L123">
+        <v>990</v>
+      </c>
+      <c r="M123">
         <v>9165</v>
       </c>
-      <c r="H123">
-        <v>2705</v>
-      </c>
-      <c r="I123">
-        <v>2481</v>
-      </c>
-      <c r="J123">
-        <v>224</v>
-      </c>
-      <c r="K123">
-        <v>8.3000000000000007</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N123">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="O123">
+        <v>-0.21767</v>
+      </c>
+      <c r="P123">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:16">
       <c r="A124" s="2">
         <v>44256</v>
       </c>
       <c r="B124">
-        <v>554</v>
+        <v>408</v>
       </c>
       <c r="C124">
         <v>-3</v>
@@ -4803,30 +6598,45 @@
         <v>1999</v>
       </c>
       <c r="F124">
-        <v>1.4424999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="G124">
+        <v>1.5</v>
+      </c>
+      <c r="H124">
+        <v>1.61</v>
+      </c>
+      <c r="I124">
+        <v>1.7</v>
+      </c>
+      <c r="J124">
+        <v>1.4425</v>
+      </c>
+      <c r="K124">
+        <v>10429</v>
+      </c>
+      <c r="L124">
+        <v>1446</v>
+      </c>
+      <c r="M124">
         <v>11875</v>
       </c>
-      <c r="H124">
-        <v>2719</v>
-      </c>
-      <c r="I124">
-        <v>2496</v>
-      </c>
-      <c r="J124">
-        <v>223</v>
-      </c>
-      <c r="K124">
-        <v>8.1999999999999993</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N124">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="O124">
+        <v>-0.1238435</v>
+      </c>
+      <c r="P124">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:16">
       <c r="A125" s="2">
         <v>44287</v>
       </c>
       <c r="B125">
-        <v>313</v>
+        <v>189</v>
       </c>
       <c r="C125">
         <v>3.8</v>
@@ -4838,30 +6648,45 @@
         <v>2006</v>
       </c>
       <c r="F125">
+        <v>0.93</v>
+      </c>
+      <c r="G125">
+        <v>1.5</v>
+      </c>
+      <c r="H125">
+        <v>1.64</v>
+      </c>
+      <c r="I125">
+        <v>1.73</v>
+      </c>
+      <c r="J125">
         <v>1.45</v>
       </c>
-      <c r="G125">
+      <c r="K125">
+        <v>8845</v>
+      </c>
+      <c r="L125">
+        <v>1095</v>
+      </c>
+      <c r="M125">
         <v>9940</v>
       </c>
-      <c r="H125">
-        <v>2738</v>
-      </c>
-      <c r="I125">
-        <v>2475</v>
-      </c>
-      <c r="J125">
-        <v>262</v>
-      </c>
-      <c r="K125">
+      <c r="N125">
         <v>9.6</v>
       </c>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O125">
+        <v>-0.07920000000000001</v>
+      </c>
+      <c r="P125">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="126" spans="1:16">
       <c r="A126" s="2">
         <v>44317</v>
       </c>
       <c r="B126">
-        <v>322</v>
+        <v>226</v>
       </c>
       <c r="C126">
         <v>2.7</v>
@@ -4873,33 +6698,48 @@
         <v>2009</v>
       </c>
       <c r="F126">
+        <v>0.97</v>
+      </c>
+      <c r="G126">
+        <v>1.5</v>
+      </c>
+      <c r="H126">
+        <v>1.66</v>
+      </c>
+      <c r="I126">
+        <v>1.75</v>
+      </c>
+      <c r="J126">
         <v>1.47</v>
       </c>
-      <c r="G126">
+      <c r="K126">
+        <v>9965</v>
+      </c>
+      <c r="L126">
+        <v>1166</v>
+      </c>
+      <c r="M126">
         <v>11131</v>
       </c>
-      <c r="H126">
-        <v>2874</v>
-      </c>
-      <c r="I126">
-        <v>2580</v>
-      </c>
-      <c r="J126">
-        <v>295</v>
-      </c>
-      <c r="K126">
+      <c r="N126">
         <v>10.3</v>
       </c>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O126">
+        <v>0.04909</v>
+      </c>
+      <c r="P126">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="127" spans="1:16">
       <c r="A127" s="2">
         <v>44348</v>
       </c>
       <c r="B127">
-        <v>256</v>
+        <v>188</v>
       </c>
       <c r="C127">
-        <v>4.5999999999999996</v>
+        <v>4.6</v>
       </c>
       <c r="D127">
         <v>114.62</v>
@@ -4908,33 +6748,48 @@
         <v>2008</v>
       </c>
       <c r="F127">
-        <v>1.4624999999999999</v>
+        <v>0.99</v>
       </c>
       <c r="G127">
+        <v>1.49</v>
+      </c>
+      <c r="H127">
+        <v>1.64</v>
+      </c>
+      <c r="I127">
+        <v>1.73</v>
+      </c>
+      <c r="J127">
+        <v>1.4625</v>
+      </c>
+      <c r="K127">
+        <v>9946</v>
+      </c>
+      <c r="L127">
+        <v>1300</v>
+      </c>
+      <c r="M127">
         <v>11246</v>
       </c>
-      <c r="H127">
-        <v>2898</v>
-      </c>
-      <c r="I127">
-        <v>2677</v>
-      </c>
-      <c r="J127">
-        <v>220</v>
-      </c>
-      <c r="K127">
+      <c r="N127">
         <v>7.6</v>
       </c>
-    </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O127">
+        <v>-0.01766667</v>
+      </c>
+      <c r="P127">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="128" spans="1:16">
       <c r="A128" s="2">
         <v>44378</v>
       </c>
       <c r="B128">
-        <v>236</v>
+        <v>117</v>
       </c>
       <c r="C128">
-        <v>4.4000000000000004</v>
+        <v>4.4</v>
       </c>
       <c r="D128">
         <v>115</v>
@@ -4943,30 +6798,45 @@
         <v>2015</v>
       </c>
       <c r="F128">
-        <v>1.5049999999999999</v>
+        <v>1.01</v>
       </c>
       <c r="G128">
+        <v>1.52</v>
+      </c>
+      <c r="H128">
+        <v>1.7</v>
+      </c>
+      <c r="I128">
+        <v>1.79</v>
+      </c>
+      <c r="J128">
+        <v>1.505</v>
+      </c>
+      <c r="K128">
+        <v>7487</v>
+      </c>
+      <c r="L128">
+        <v>727</v>
+      </c>
+      <c r="M128">
         <v>8214</v>
       </c>
-      <c r="H128">
-        <v>2841</v>
-      </c>
-      <c r="I128">
-        <v>2639</v>
-      </c>
-      <c r="J128">
-        <v>202</v>
-      </c>
-      <c r="K128">
+      <c r="N128">
         <v>7.1</v>
       </c>
-    </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O128">
+        <v>-0.09562727</v>
+      </c>
+      <c r="P128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:16">
       <c r="A129" s="2">
         <v>44409</v>
       </c>
       <c r="B129">
-        <v>250</v>
+        <v>160</v>
       </c>
       <c r="C129">
         <v>4</v>
@@ -4978,30 +6848,45 @@
         <v>2020</v>
       </c>
       <c r="F129">
+        <v>1.01</v>
+      </c>
+      <c r="G129">
+        <v>1.53</v>
+      </c>
+      <c r="H129">
+        <v>1.73</v>
+      </c>
+      <c r="I129">
+        <v>1.82</v>
+      </c>
+      <c r="J129">
         <v>1.5225</v>
       </c>
-      <c r="G129">
+      <c r="K129">
+        <v>7906</v>
+      </c>
+      <c r="L129">
+        <v>1008</v>
+      </c>
+      <c r="M129">
         <v>8914</v>
       </c>
-      <c r="H129">
-        <v>2767</v>
-      </c>
-      <c r="I129">
-        <v>2588</v>
-      </c>
-      <c r="J129">
-        <v>179</v>
-      </c>
-      <c r="K129">
+      <c r="N129">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O129">
+        <v>-0.2150545</v>
+      </c>
+      <c r="P129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:16">
       <c r="A130" s="2">
         <v>44440</v>
       </c>
       <c r="B130">
-        <v>265</v>
+        <v>173</v>
       </c>
       <c r="C130">
         <v>6</v>
@@ -5013,30 +6898,45 @@
         <v>2026</v>
       </c>
       <c r="F130">
-        <v>1.5175000000000001</v>
+        <v>1.03</v>
       </c>
       <c r="G130">
+        <v>1.52</v>
+      </c>
+      <c r="H130">
+        <v>1.72</v>
+      </c>
+      <c r="I130">
+        <v>1.8</v>
+      </c>
+      <c r="J130">
+        <v>1.5175</v>
+      </c>
+      <c r="K130">
+        <v>6535</v>
+      </c>
+      <c r="L130">
+        <v>1059</v>
+      </c>
+      <c r="M130">
         <v>7594</v>
       </c>
-      <c r="H130">
-        <v>2718</v>
-      </c>
-      <c r="I130">
-        <v>2527</v>
-      </c>
-      <c r="J130">
-        <v>191</v>
-      </c>
-      <c r="K130">
+      <c r="N130">
         <v>7</v>
       </c>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O130">
+        <v>-0.08386364</v>
+      </c>
+      <c r="P130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:16">
       <c r="A131" s="2">
         <v>44470</v>
       </c>
       <c r="B131">
-        <v>179</v>
+        <v>71</v>
       </c>
       <c r="C131">
         <v>2.7</v>
@@ -5048,30 +6948,45 @@
         <v>2041</v>
       </c>
       <c r="F131">
+        <v>1.14</v>
+      </c>
+      <c r="G131">
+        <v>1.63</v>
+      </c>
+      <c r="H131">
+        <v>1.8</v>
+      </c>
+      <c r="I131">
+        <v>1.88</v>
+      </c>
+      <c r="J131">
         <v>1.6125</v>
       </c>
-      <c r="G131">
+      <c r="K131">
+        <v>6613</v>
+      </c>
+      <c r="L131">
+        <v>943</v>
+      </c>
+      <c r="M131">
         <v>7556</v>
       </c>
-      <c r="H131">
-        <v>2734</v>
-      </c>
-      <c r="I131">
-        <v>2570</v>
-      </c>
-      <c r="J131">
-        <v>164</v>
-      </c>
-      <c r="K131">
+      <c r="N131">
         <v>6</v>
       </c>
-    </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O131">
+        <v>0.07888421</v>
+      </c>
+      <c r="P131">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="132" spans="1:16">
       <c r="A132" s="2">
         <v>44501</v>
       </c>
       <c r="B132">
-        <v>379</v>
+        <v>221</v>
       </c>
       <c r="C132">
         <v>1.2</v>
@@ -5083,30 +6998,45 @@
         <v>2050</v>
       </c>
       <c r="F132">
+        <v>1.15</v>
+      </c>
+      <c r="G132">
+        <v>1.7</v>
+      </c>
+      <c r="H132">
+        <v>1.89</v>
+      </c>
+      <c r="I132">
+        <v>1.97</v>
+      </c>
+      <c r="J132">
         <v>1.6775</v>
       </c>
-      <c r="G132">
+      <c r="K132">
+        <v>6678</v>
+      </c>
+      <c r="L132">
+        <v>908</v>
+      </c>
+      <c r="M132">
         <v>7586</v>
       </c>
-      <c r="H132">
-        <v>2726</v>
-      </c>
-      <c r="I132">
-        <v>2562</v>
-      </c>
-      <c r="J132">
-        <v>164</v>
-      </c>
-      <c r="K132">
+      <c r="N132">
         <v>6</v>
       </c>
-    </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O132">
+        <v>0.0043</v>
+      </c>
+      <c r="P132">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="133" spans="1:16">
       <c r="A133" s="2">
         <v>44531</v>
       </c>
       <c r="B133">
-        <v>256</v>
+        <v>93</v>
       </c>
       <c r="C133">
         <v>-3.5</v>
@@ -5118,30 +7048,45 @@
         <v>2049</v>
       </c>
       <c r="F133">
+        <v>1.11</v>
+      </c>
+      <c r="G133">
+        <v>1.67</v>
+      </c>
+      <c r="H133">
+        <v>1.82</v>
+      </c>
+      <c r="I133">
+        <v>1.9</v>
+      </c>
+      <c r="J133">
         <v>1.625</v>
       </c>
-      <c r="G133">
+      <c r="K133">
+        <v>6530</v>
+      </c>
+      <c r="L133">
+        <v>949</v>
+      </c>
+      <c r="M133">
         <v>7479</v>
       </c>
-      <c r="H133">
-        <v>2782</v>
-      </c>
-      <c r="I133">
-        <v>2595</v>
-      </c>
-      <c r="J133">
-        <v>187</v>
-      </c>
-      <c r="K133">
+      <c r="N133">
         <v>6.7</v>
       </c>
-    </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O133">
+        <v>-0.06184</v>
+      </c>
+      <c r="P133">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="134" spans="1:16">
       <c r="A134" s="2">
         <v>44562</v>
       </c>
       <c r="B134">
-        <v>230</v>
+        <v>154</v>
       </c>
       <c r="C134">
         <v>-1.7</v>
@@ -5153,30 +7098,45 @@
         <v>2074</v>
       </c>
       <c r="F134">
-        <v>1.7024999999999999</v>
+        <v>1.18</v>
       </c>
       <c r="G134">
+        <v>1.78</v>
+      </c>
+      <c r="H134">
+        <v>1.88</v>
+      </c>
+      <c r="I134">
+        <v>1.97</v>
+      </c>
+      <c r="J134">
+        <v>1.7025</v>
+      </c>
+      <c r="K134">
+        <v>7884</v>
+      </c>
+      <c r="L134">
+        <v>1008</v>
+      </c>
+      <c r="M134">
         <v>8892</v>
       </c>
-      <c r="H134">
-        <v>2739</v>
-      </c>
-      <c r="I134">
-        <v>2533</v>
-      </c>
-      <c r="J134">
-        <v>205</v>
-      </c>
-      <c r="K134">
+      <c r="N134">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O134">
+        <v>0.17909</v>
+      </c>
+      <c r="P134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:16">
       <c r="A135" s="2">
         <v>44593</v>
       </c>
       <c r="B135">
-        <v>223</v>
+        <v>142</v>
       </c>
       <c r="C135">
         <v>0.5</v>
@@ -5188,30 +7148,45 @@
         <v>2084</v>
       </c>
       <c r="F135">
+        <v>1.29</v>
+      </c>
+      <c r="G135">
+        <v>1.87</v>
+      </c>
+      <c r="H135">
+        <v>1.94</v>
+      </c>
+      <c r="I135">
+        <v>2.03</v>
+      </c>
+      <c r="J135">
         <v>1.7825</v>
       </c>
-      <c r="G135">
+      <c r="K135">
+        <v>6305</v>
+      </c>
+      <c r="L135">
+        <v>934</v>
+      </c>
+      <c r="M135">
         <v>7239</v>
       </c>
-      <c r="H135">
-        <v>2755</v>
-      </c>
-      <c r="I135">
-        <v>2570</v>
-      </c>
-      <c r="J135">
-        <v>185</v>
-      </c>
-      <c r="K135">
+      <c r="N135">
         <v>6.7</v>
       </c>
-    </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O135">
+        <v>0.5108200000000001</v>
+      </c>
+      <c r="P135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:16">
       <c r="A136" s="2">
         <v>44621</v>
       </c>
       <c r="B136">
-        <v>387</v>
+        <v>270</v>
       </c>
       <c r="C136">
         <v>-10.5</v>
@@ -5223,30 +7198,45 @@
         <v>2115</v>
       </c>
       <c r="F136">
-        <v>2.2349999999999999</v>
+        <v>2.06</v>
       </c>
       <c r="G136">
+        <v>2.33</v>
+      </c>
+      <c r="H136">
+        <v>2.23</v>
+      </c>
+      <c r="I136">
+        <v>2.32</v>
+      </c>
+      <c r="J136">
+        <v>2.235</v>
+      </c>
+      <c r="K136">
+        <v>7543</v>
+      </c>
+      <c r="L136">
+        <v>1046</v>
+      </c>
+      <c r="M136">
         <v>8589</v>
       </c>
-      <c r="H136">
-        <v>2765</v>
-      </c>
-      <c r="I136">
-        <v>2573</v>
-      </c>
-      <c r="J136">
-        <v>192</v>
-      </c>
-      <c r="K136">
+      <c r="N136">
         <v>7</v>
       </c>
-    </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O136">
+        <v>0.7158174</v>
+      </c>
+      <c r="P136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:16">
       <c r="A137" s="2">
         <v>44652</v>
       </c>
       <c r="B137">
-        <v>320</v>
+        <v>165</v>
       </c>
       <c r="C137">
         <v>-11.7</v>
@@ -5258,30 +7248,45 @@
         <v>2121</v>
       </c>
       <c r="F137">
+        <v>1.59</v>
+      </c>
+      <c r="G137">
+        <v>2.22</v>
+      </c>
+      <c r="H137">
+        <v>2.17</v>
+      </c>
+      <c r="I137">
+        <v>2.26</v>
+      </c>
+      <c r="J137">
         <v>2.06</v>
       </c>
-      <c r="G137">
+      <c r="K137">
+        <v>6432</v>
+      </c>
+      <c r="L137">
+        <v>788</v>
+      </c>
+      <c r="M137">
         <v>7220</v>
       </c>
-      <c r="H137">
-        <v>2782</v>
-      </c>
-      <c r="I137">
-        <v>2589</v>
-      </c>
-      <c r="J137">
-        <v>193</v>
-      </c>
-      <c r="K137">
+      <c r="N137">
         <v>6.9</v>
       </c>
-    </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O137">
+        <v>1.177</v>
+      </c>
+      <c r="P137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:16">
       <c r="A138" s="2">
         <v>44682</v>
       </c>
       <c r="B138">
-        <v>224</v>
+        <v>118</v>
       </c>
       <c r="C138">
         <v>-11.6</v>
@@ -5293,30 +7298,45 @@
         <v>2149</v>
       </c>
       <c r="F138">
-        <v>2.1749999999999998</v>
+        <v>1.74</v>
       </c>
       <c r="G138">
+        <v>2.27</v>
+      </c>
+      <c r="H138">
+        <v>2.3</v>
+      </c>
+      <c r="I138">
+        <v>2.39</v>
+      </c>
+      <c r="J138">
+        <v>2.175</v>
+      </c>
+      <c r="K138">
+        <v>7942</v>
+      </c>
+      <c r="L138">
+        <v>856</v>
+      </c>
+      <c r="M138">
         <v>8798</v>
       </c>
-      <c r="H138">
-        <v>2867</v>
-      </c>
-      <c r="I138">
-        <v>2641</v>
-      </c>
-      <c r="J138">
-        <v>227</v>
-      </c>
-      <c r="K138">
+      <c r="N138">
         <v>7.9</v>
       </c>
-    </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O138">
+        <v>1.451962</v>
+      </c>
+      <c r="P138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:16">
       <c r="A139" s="2">
         <v>44713</v>
       </c>
       <c r="B139">
-        <v>233</v>
+        <v>146</v>
       </c>
       <c r="C139">
         <v>-14.3</v>
@@ -5328,30 +7348,45 @@
         <v>2165</v>
       </c>
       <c r="F139">
-        <v>2.4075000000000002</v>
+        <v>1.95</v>
       </c>
       <c r="G139">
+        <v>2.44</v>
+      </c>
+      <c r="H139">
+        <v>2.57</v>
+      </c>
+      <c r="I139">
+        <v>2.67</v>
+      </c>
+      <c r="J139">
+        <v>2.4075</v>
+      </c>
+      <c r="K139">
+        <v>7398</v>
+      </c>
+      <c r="L139">
+        <v>907</v>
+      </c>
+      <c r="M139">
         <v>8305</v>
       </c>
-      <c r="H139">
-        <v>2929</v>
-      </c>
-      <c r="I139">
-        <v>2729</v>
-      </c>
-      <c r="J139">
-        <v>200</v>
-      </c>
-      <c r="K139">
+      <c r="N139">
         <v>6.8</v>
       </c>
-    </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O139">
+        <v>2.072276</v>
+      </c>
+      <c r="P139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:16">
       <c r="A140" s="2">
         <v>44743</v>
       </c>
       <c r="B140">
-        <v>117</v>
+        <v>68</v>
       </c>
       <c r="C140">
         <v>-15.9</v>
@@ -5363,30 +7398,45 @@
         <v>2172</v>
       </c>
       <c r="F140">
-        <v>2.2000000000000002</v>
+        <v>1.78</v>
       </c>
       <c r="G140">
+        <v>2.27</v>
+      </c>
+      <c r="H140">
+        <v>2.33</v>
+      </c>
+      <c r="I140">
+        <v>2.42</v>
+      </c>
+      <c r="J140">
+        <v>2.2</v>
+      </c>
+      <c r="K140">
+        <v>5503</v>
+      </c>
+      <c r="L140">
+        <v>598</v>
+      </c>
+      <c r="M140">
         <v>6101</v>
       </c>
-      <c r="H140">
-        <v>2878</v>
-      </c>
-      <c r="I140">
-        <v>2688</v>
-      </c>
-      <c r="J140">
-        <v>190</v>
-      </c>
-      <c r="K140">
+      <c r="N140">
         <v>6.6</v>
       </c>
-    </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="O140">
+        <v>1.713857</v>
+      </c>
+      <c r="P140">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:16">
       <c r="A141" s="2">
         <v>44774</v>
       </c>
       <c r="B141">
-        <v>255</v>
+        <v>179</v>
       </c>
       <c r="C141">
         <v>-14.9</v>
@@ -5398,22 +7448,37 @@
         <v>2173</v>
       </c>
       <c r="F141">
+        <v>1.62</v>
+      </c>
+      <c r="G141">
+        <v>2.09</v>
+      </c>
+      <c r="H141">
+        <v>2.14</v>
+      </c>
+      <c r="I141">
+        <v>2.23</v>
+      </c>
+      <c r="J141">
         <v>2.02</v>
       </c>
-      <c r="G141">
+      <c r="K141">
+        <v>7114</v>
+      </c>
+      <c r="L141">
+        <v>1049</v>
+      </c>
+      <c r="M141">
         <v>8163</v>
       </c>
-      <c r="H141">
-        <v>2805</v>
-      </c>
-      <c r="I141">
-        <v>2618</v>
-      </c>
-      <c r="J141">
-        <v>187</v>
-      </c>
-      <c r="K141">
+      <c r="N141">
         <v>6.7</v>
+      </c>
+      <c r="O141">
+        <v>1.624904</v>
+      </c>
+      <c r="P141">
+        <v>-0.2</v>
       </c>
     </row>
   </sheetData>
